--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="257">
   <si>
     <t>Team</t>
   </si>
@@ -632,6 +633,162 @@
   </si>
   <si>
     <t>1.2778</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Aberdeen,L D L W D W</t>
+  </si>
+  <si>
+    <t>Celtic,W D D W D L</t>
+  </si>
+  <si>
+    <t>Dundee United,D D W W L L</t>
+  </si>
+  <si>
+    <t>Hamilton,D L D L L W</t>
+  </si>
+  <si>
+    <t>Hibernian,L W D L W L</t>
+  </si>
+  <si>
+    <t>Kilmarnock,D L W D W L</t>
+  </si>
+  <si>
+    <t>Livingston,L W D L L L</t>
+  </si>
+  <si>
+    <t>Motherwell,W W L W W W</t>
+  </si>
+  <si>
+    <t>Rangers,W W D W D W</t>
+  </si>
+  <si>
+    <t>Ross County,W L L D L W</t>
+  </si>
+  <si>
+    <t>St Johnstone,D W W L D W</t>
+  </si>
+  <si>
+    <t>St Mirren,W L D L W L</t>
+  </si>
+  <si>
+    <t>Aberdeen,0 0 0 1 1 2</t>
+  </si>
+  <si>
+    <t>Celtic,1 0 1 6 1 1</t>
+  </si>
+  <si>
+    <t>Dundee United,1 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Hamilton,0 1 1 0 0 2</t>
+  </si>
+  <si>
+    <t>Hibernian,0 2 1 1 2 0</t>
+  </si>
+  <si>
+    <t>Kilmarnock,1 2 4 2 3 0</t>
+  </si>
+  <si>
+    <t>Livingston,1 2 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Motherwell,2 3 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Rangers,1 3 1 2 1 4</t>
+  </si>
+  <si>
+    <t>Ross County,3 1 0 2 1 2</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 1 1 0 1 1</t>
+  </si>
+  <si>
+    <t>St Mirren,1 0 1 0 3 1</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 0 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Celtic,0 0 1 0 1 4</t>
+  </si>
+  <si>
+    <t>Dundee United,1 0 0 0 3 2</t>
+  </si>
+  <si>
+    <t>Hamilton,0 2 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Hibernian,1 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Kilmarnock,1 3 1 2 0 2</t>
+  </si>
+  <si>
+    <t>Livingston,3 1 1 6 2 2</t>
+  </si>
+  <si>
+    <t>Motherwell,0 1 4 0 0 0</t>
+  </si>
+  <si>
+    <t>Rangers,0 0 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Ross County,2 2 1 2 3 0</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 0 0 1 1 0</t>
+  </si>
+  <si>
+    <t>St Mirren,0 3 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 0 1 1 2 3</t>
+  </si>
+  <si>
+    <t>Celtic,1 0 2 6 2 5</t>
+  </si>
+  <si>
+    <t>Dundee United,2 0 1 1 3 2</t>
+  </si>
+  <si>
+    <t>Hamilton,0 3 2 1 1 3</t>
+  </si>
+  <si>
+    <t>Hibernian,1 3 2 3 3 1</t>
+  </si>
+  <si>
+    <t>Kilmarnock,2 5 5 4 3 2</t>
+  </si>
+  <si>
+    <t>Livingston,4 3 2 6 3 3</t>
+  </si>
+  <si>
+    <t>Motherwell,2 4 5 1 1 2</t>
+  </si>
+  <si>
+    <t>Rangers,1 3 2 3 2 5</t>
+  </si>
+  <si>
+    <t>Ross County,5 3 1 4 4 2</t>
+  </si>
+  <si>
+    <t>St Johnstone,2 1 1 1 2 1</t>
+  </si>
+  <si>
+    <t>St Mirren,1 3 2 1 4 3</t>
   </si>
 </sst>
 </file>
@@ -14154,4 +14311,236 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -12,13 +12,14 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="L6" r:id="rId9" sheetId="7"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4478" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="348">
   <si>
     <t>Team</t>
   </si>
@@ -633,6 +634,279 @@
   </si>
   <si>
     <t>1.2778</t>
+  </si>
+  <si>
+    <t>Group.1</t>
+  </si>
+  <si>
+    <t>hst</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>TST</t>
+  </si>
+  <si>
+    <t>TFthg</t>
+  </si>
+  <si>
+    <t>Avg_Fthg</t>
+  </si>
+  <si>
+    <t>TFtag</t>
+  </si>
+  <si>
+    <t>Avg_Ftag</t>
+  </si>
+  <si>
+    <t>TGS</t>
+  </si>
+  <si>
+    <t>HSTC</t>
+  </si>
+  <si>
+    <t>ASTC</t>
+  </si>
+  <si>
+    <t>TSTC</t>
+  </si>
+  <si>
+    <t>hsc</t>
+  </si>
+  <si>
+    <t>asc</t>
+  </si>
+  <si>
+    <t>TSC</t>
+  </si>
+  <si>
+    <t>TFthc</t>
+  </si>
+  <si>
+    <t>Avg_Fthc</t>
+  </si>
+  <si>
+    <t>TFtac</t>
+  </si>
+  <si>
+    <t>Avg_Ftac</t>
+  </si>
+  <si>
+    <t>TGC</t>
+  </si>
+  <si>
+    <t>HSCC</t>
+  </si>
+  <si>
+    <t>ASCC</t>
+  </si>
+  <si>
+    <t>TSCC</t>
+  </si>
+  <si>
+    <t>36.51%</t>
+  </si>
+  <si>
+    <t>31.09%</t>
+  </si>
+  <si>
+    <t>33.33%</t>
+  </si>
+  <si>
+    <t>23.64%</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>35.53%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>33.93%</t>
+  </si>
+  <si>
+    <t>41.09%</t>
+  </si>
+  <si>
+    <t>26.98%</t>
+  </si>
+  <si>
+    <t>19.15%</t>
+  </si>
+  <si>
+    <t>25.86%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
+  </si>
+  <si>
+    <t>31.62%</t>
+  </si>
+  <si>
+    <t>22.45%</t>
+  </si>
+  <si>
+    <t>39.22%</t>
+  </si>
+  <si>
+    <t>35.14%</t>
+  </si>
+  <si>
+    <t>27.50%</t>
+  </si>
+  <si>
+    <t>36.67%</t>
+  </si>
+  <si>
+    <t>28.81%</t>
+  </si>
+  <si>
+    <t>39.02%</t>
+  </si>
+  <si>
+    <t>26.92%</t>
+  </si>
+  <si>
+    <t>28.79%</t>
+  </si>
+  <si>
+    <t>28.12%</t>
+  </si>
+  <si>
+    <t>31.36%</t>
+  </si>
+  <si>
+    <t>28.30%</t>
+  </si>
+  <si>
+    <t>31.13%</t>
+  </si>
+  <si>
+    <t>32.76%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>31.30%</t>
+  </si>
+  <si>
+    <t>40.28%</t>
+  </si>
+  <si>
+    <t>26.96%</t>
+  </si>
+  <si>
+    <t>29.27%</t>
+  </si>
+  <si>
+    <t>27.42%</t>
+  </si>
+  <si>
+    <t>29.82%</t>
+  </si>
+  <si>
+    <t>23.40%</t>
+  </si>
+  <si>
+    <t>22.68%</t>
+  </si>
+  <si>
+    <t>32.14%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
+  </si>
+  <si>
+    <t>39.34%</t>
+  </si>
+  <si>
+    <t>33.85%</t>
+  </si>
+  <si>
+    <t>34.94%</t>
+  </si>
+  <si>
+    <t>12.12%</t>
+  </si>
+  <si>
+    <t>36.56%</t>
+  </si>
+  <si>
+    <t>36.59%</t>
+  </si>
+  <si>
+    <t>38.33%</t>
+  </si>
+  <si>
+    <t>27.12%</t>
+  </si>
+  <si>
+    <t>36.73%</t>
+  </si>
+  <si>
+    <t>27.96%</t>
+  </si>
+  <si>
+    <t>36.36%</t>
+  </si>
+  <si>
+    <t>35.06%</t>
+  </si>
+  <si>
+    <t>42.03%</t>
+  </si>
+  <si>
+    <t>28.95%</t>
+  </si>
+  <si>
+    <t>19.57%</t>
+  </si>
+  <si>
+    <t>36.14%</t>
+  </si>
+  <si>
+    <t>45.00%</t>
+  </si>
+  <si>
+    <t>21.84%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>30.21%</t>
+  </si>
+  <si>
+    <t>25.26%</t>
+  </si>
+  <si>
+    <t>34.43%</t>
+  </si>
+  <si>
+    <t>28.69%</t>
+  </si>
+  <si>
+    <t>36.96%</t>
+  </si>
+  <si>
+    <t>38.06%</t>
+  </si>
+  <si>
+    <t>32.08%</t>
+  </si>
+  <si>
+    <t>16.46%</t>
+  </si>
+  <si>
+    <t>41.58%</t>
+  </si>
+  <si>
+    <t>28.57%</t>
   </si>
   <si>
     <t>Form</t>
@@ -14335,22 +14609,142 @@
       <c r="E1" t="s">
         <v>208</v>
       </c>
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
+        <v>212</v>
+      </c>
+      <c r="J1" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O1" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>219</v>
+      </c>
+      <c r="R1" t="s">
+        <v>220</v>
+      </c>
+      <c r="S1" t="s">
+        <v>221</v>
+      </c>
+      <c r="T1" t="s">
+        <v>222</v>
+      </c>
+      <c r="U1" t="s">
+        <v>223</v>
+      </c>
+      <c r="V1" t="s">
+        <v>224</v>
+      </c>
+      <c r="W1" t="s">
+        <v>225</v>
+      </c>
+      <c r="X1" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
-        <v>245</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>228</v>
+      </c>
+      <c r="L2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" t="s">
+        <v>251</v>
+      </c>
+      <c r="N2" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="T2" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="V2" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>262</v>
+      </c>
+      <c r="X2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -14358,16 +14752,76 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" t="s">
-        <v>246</v>
+        <v>22</v>
+      </c>
+      <c r="C3" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0555555555555554</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.0555555555555554</v>
+      </c>
+      <c r="J3" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>229</v>
+      </c>
+      <c r="L3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M3" t="s">
+        <v>252</v>
+      </c>
+      <c r="N3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>263</v>
+      </c>
+      <c r="X3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="4">
@@ -14375,16 +14829,76 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" t="s">
-        <v>247</v>
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" t="s">
+        <v>242</v>
+      </c>
+      <c r="M4" t="s">
+        <v>253</v>
+      </c>
+      <c r="N4" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>190.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="T4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="V4" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>264</v>
+      </c>
+      <c r="X4" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5">
@@ -14392,16 +14906,76 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" t="s">
-        <v>248</v>
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="H5" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="J5" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L5" t="s">
+        <v>243</v>
+      </c>
+      <c r="M5" t="s">
+        <v>254</v>
+      </c>
+      <c r="N5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>265</v>
+      </c>
+      <c r="X5" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="6">
@@ -14409,16 +14983,76 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="J6" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>232</v>
+      </c>
+      <c r="L6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M6" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="T6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="V6" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>266</v>
+      </c>
+      <c r="X6" t="s">
         <v>249</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="7">
@@ -14426,16 +15060,76 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E7" t="s">
-        <v>250</v>
+        <v>31</v>
+      </c>
+      <c r="C7" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" t="s">
+        <v>255</v>
+      </c>
+      <c r="N7" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="T7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>267</v>
+      </c>
+      <c r="X7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -14443,16 +15137,76 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" t="s">
-        <v>251</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="H8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" t="s">
+        <v>256</v>
+      </c>
+      <c r="N8" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="T8" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.6111111111111112</v>
+      </c>
+      <c r="V8" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>268</v>
+      </c>
+      <c r="X8" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="9">
@@ -14460,16 +15214,76 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" t="s">
-        <v>252</v>
+        <v>26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="J9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" t="s">
+        <v>247</v>
+      </c>
+      <c r="M9" t="s">
+        <v>257</v>
+      </c>
+      <c r="N9" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.6111111111111112</v>
+      </c>
+      <c r="T9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="V9" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>269</v>
+      </c>
+      <c r="X9" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="10">
@@ -14477,16 +15291,76 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" t="s">
-        <v>253</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>211.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.9444444444444446</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="J10" t="n">
+        <v>85.0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>236</v>
+      </c>
+      <c r="L10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="T10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>270</v>
+      </c>
+      <c r="X10" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="11">
@@ -14494,16 +15368,76 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
+        <v>30</v>
+      </c>
+      <c r="C11" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>237</v>
+      </c>
+      <c r="L11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" t="s">
+        <v>259</v>
+      </c>
+      <c r="N11" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>83.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="T11" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="V11" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>271</v>
+      </c>
+      <c r="X11" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="12">
@@ -14511,16 +15445,76 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" t="s">
-        <v>231</v>
-      </c>
-      <c r="D12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E12" t="s">
-        <v>255</v>
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L12" t="s">
+        <v>233</v>
+      </c>
+      <c r="M12" t="s">
+        <v>260</v>
+      </c>
+      <c r="N12" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="T12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>272</v>
+      </c>
+      <c r="X12" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="13">
@@ -14528,16 +15522,308 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>28</v>
+      </c>
+      <c r="C13" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="J13" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>239</v>
+      </c>
+      <c r="L13" t="s">
+        <v>250</v>
+      </c>
+      <c r="M13" t="s">
+        <v>261</v>
+      </c>
+      <c r="N13" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.2777777777777777</v>
+      </c>
+      <c r="T13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="V13" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>273</v>
+      </c>
+      <c r="X13" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>326</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+      <c r="D7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="D11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>335</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -987,112 +987,112 @@
     <t>St Mirren,D L W L D D</t>
   </si>
   <si>
-    <t>Aberdeen,0 1 1 2 0 0</t>
-  </si>
-  <si>
-    <t>Celtic,1 6 1 1 4 0</t>
-  </si>
-  <si>
-    <t>Dundee United,1 1 0 0 2 0</t>
-  </si>
-  <si>
-    <t>Hamilton,1 0 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Hibernian,1 1 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Kilmarnock,4 2 3 0 3 2</t>
-  </si>
-  <si>
-    <t>Livingston,1 0 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Motherwell,1 1 1 2 2 1</t>
-  </si>
-  <si>
-    <t>Rangers,1 2 1 4 3 4</t>
-  </si>
-  <si>
-    <t>Ross County,0 2 1 2 2 2</t>
-  </si>
-  <si>
-    <t>St Johnstone,1 0 1 1 0 0</t>
-  </si>
-  <si>
-    <t>St Mirren,1 0 3 1 3 0</t>
-  </si>
-  <si>
-    <t>Aberdeen,1 0 1 1 1 4</t>
-  </si>
-  <si>
-    <t>Celtic,1 0 1 4 0 0</t>
-  </si>
-  <si>
-    <t>Dundee United,0 0 3 2 2 0</t>
-  </si>
-  <si>
-    <t>Hamilton,1 1 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Hibernian,1 2 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Kilmarnock,1 2 0 2 3 0</t>
-  </si>
-  <si>
-    <t>Livingston,1 6 2 2 3 0</t>
-  </si>
-  <si>
-    <t>Motherwell,4 0 0 0 2 2</t>
-  </si>
-  <si>
-    <t>Rangers,1 1 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Ross County,1 2 3 0 1 1</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 1 0 4 0</t>
-  </si>
-  <si>
-    <t>St Mirren,1 1 1 2 3 0</t>
-  </si>
-  <si>
-    <t>Aberdeen,1 1 2 3 1 4</t>
-  </si>
-  <si>
-    <t>Celtic,2 6 2 5 4 0</t>
-  </si>
-  <si>
-    <t>Dundee United,1 1 3 2 4 0</t>
-  </si>
-  <si>
-    <t>Hamilton,2 1 1 3 3 2</t>
-  </si>
-  <si>
-    <t>Hibernian,2 3 3 1 1 0</t>
-  </si>
-  <si>
-    <t>Kilmarnock,5 4 3 2 6 2</t>
-  </si>
-  <si>
-    <t>Livingston,2 6 3 3 3 0</t>
-  </si>
-  <si>
-    <t>Motherwell,5 1 1 2 4 3</t>
-  </si>
-  <si>
-    <t>Rangers,2 3 2 5 3 4</t>
-  </si>
-  <si>
-    <t>Ross County,1 4 4 2 3 3</t>
-  </si>
-  <si>
-    <t>St Johnstone,1 1 2 1 4 0</t>
-  </si>
-  <si>
-    <t>St Mirren,2 1 4 3 6 0</t>
+    <t>Aberdeen,0 1 1 2 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Celtic,1 6 1 1 4 0,(13)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 1 0 0 2 0,(4)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 0 0 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Hibernian,1 1 2 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,4 2 3 0 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Livingston,1 0 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 1 1 2 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Rangers,1 2 1 4 3 4,(15)</t>
+  </si>
+  <si>
+    <t>Ross County,0 2 1 2 2 2,(9)</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 0 1 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>St Mirren,1 0 3 1 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 0 1 1 1 4,(8)</t>
+  </si>
+  <si>
+    <t>Celtic,1 0 1 4 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 0 3 2 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Hamilton,1 1 1 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Hibernian,1 2 1 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,1 2 0 2 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Livingston,1 6 2 2 3 0,(14)</t>
+  </si>
+  <si>
+    <t>Motherwell,4 0 0 0 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Rangers,1 1 1 1 0 0,(4)</t>
+  </si>
+  <si>
+    <t>Ross County,1 2 3 0 1 1,(8)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 1 0 4 0,(6)</t>
+  </si>
+  <si>
+    <t>St Mirren,1 1 1 2 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 1 2 3 1 4,(12)</t>
+  </si>
+  <si>
+    <t>Celtic,2 6 2 5 4 0,(19)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 1 3 2 4 0,(11)</t>
+  </si>
+  <si>
+    <t>Hamilton,2 1 1 3 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 3 3 1 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Kilmarnock,5 4 3 2 6 2,(22)</t>
+  </si>
+  <si>
+    <t>Livingston,2 6 3 3 3 0,(17)</t>
+  </si>
+  <si>
+    <t>Motherwell,5 1 1 2 4 3,(16)</t>
+  </si>
+  <si>
+    <t>Rangers,2 3 2 5 3 4,(19)</t>
+  </si>
+  <si>
+    <t>Ross County,1 4 4 2 3 3,(17)</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 1 2 1 4 0,(9)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 1 4 3 6 0,(16)</t>
   </si>
   <si>
     <t>Aberdeen,Dundee United St Johnstone Celtic Livingston Hibernian Rangers</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -678,256 +678,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aberdeen,D L L L L L</t>
-  </si>
-  <si>
-    <t>Celtic,L W L D W W</t>
-  </si>
-  <si>
-    <t>Dundee,L D L L L W</t>
-  </si>
-  <si>
-    <t>Dundee United,L D W D W W</t>
-  </si>
-  <si>
-    <t>Hearts,W D D W W D</t>
-  </si>
-  <si>
-    <t>Hibernian,W D D W L L</t>
-  </si>
-  <si>
-    <t>Livingston,L D W L L W</t>
-  </si>
-  <si>
-    <t>Motherwell,W W D W L L</t>
-  </si>
-  <si>
-    <t>Rangers,W W D W W D</t>
-  </si>
-  <si>
-    <t>Ross County,D L D L L L</t>
-  </si>
-  <si>
-    <t>St Johnstone,D L W L W L</t>
-  </si>
-  <si>
-    <t>St Mirren,D D D W W W</t>
-  </si>
-  <si>
-    <t>Aberdeen,1 0 0 2 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Celtic,0 3 0 1 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Dundee,0 0 0 0 1 2,(3)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 0 1 1 1 3,(6)</t>
-  </si>
-  <si>
-    <t>Hearts,2 0 2 3 2 1,(10)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 2 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Livingston,0 0 1 0 0 3,(4)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 2 1 2 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Rangers,1 2 1 1 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Ross County,1 0 2 1 0 2,(6)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 1 0 3 0,(5)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 0 2 3 1 3,(9)</t>
-  </si>
-  <si>
-    <t>Aberdeen,1 2 1 3 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Celtic,1 0 1 1 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Dundee,1 0 1 1 3 1,(7)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 0 0 1 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Hearts,0 0 2 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Hibernian,0 0 2 0 2 3,(7)</t>
-  </si>
-  <si>
-    <t>Livingston,2 0 0 3 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Motherwell,0 0 1 1 2 2,(6)</t>
-  </si>
-  <si>
-    <t>Rangers,0 1 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Ross County,1 3 2 2 1 3,(12)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 2 0 1 1 3,(7)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 0 2 2 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 2 1 5 3 3,(16)</t>
-  </si>
-  <si>
-    <t>Celtic,1 3 1 2 3 2,(12)</t>
-  </si>
-  <si>
-    <t>Dundee,1 0 1 1 4 3,(10)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 0 1 2 1 3,(9)</t>
-  </si>
-  <si>
-    <t>Hearts,2 0 4 3 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 4 1 3 3,(13)</t>
-  </si>
-  <si>
-    <t>Livingston,2 0 1 3 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 2 2 3 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Rangers,1 3 2 1 3 2,(12)</t>
-  </si>
-  <si>
-    <t>Ross County,2 3 4 3 1 5,(18)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 3 1 1 4 3,(12)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 0 4 5 1 5,(15)</t>
-  </si>
-  <si>
-    <t>Aberdeen,1-1 2-0 0-1 3-2 1-2 2-1</t>
-  </si>
-  <si>
-    <t>Celtic,1-0 3-0 1-0 1-1 1-2 0-2</t>
-  </si>
-  <si>
-    <t>Dundee,1-0 0-0 1-0 0-1 3-1 2-1</t>
-  </si>
-  <si>
-    <t>Dundee United,0-2 0-0 1-0 1-1 1-0 0-3</t>
-  </si>
-  <si>
-    <t>Hearts,0-2 0-0 2-2 3-0 2-0 1-1</t>
-  </si>
-  <si>
-    <t>Hibernian,2-0 0-0 2-2 1-0 2-1 0-3</t>
-  </si>
-  <si>
-    <t>Livingston,2-0 0-0 1-0 3-0 0-1 0-3</t>
-  </si>
-  <si>
-    <t>Motherwell,1-0 2-0 1-1 2-1 2-0 0-2</t>
-  </si>
-  <si>
-    <t>Rangers,1-0 1-2 1-1 0-1 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Ross County,1-1 3-0 2-2 2-1 1-0 2-3</t>
-  </si>
-  <si>
-    <t>St Johnstone,0-0 1-2 0-1 1-0 3-1 0-3</t>
-  </si>
-  <si>
-    <t>St Mirren,0-0 0-0 2-2 3-2 0-1 2-3</t>
-  </si>
-  <si>
-    <t>Aberdeen,0 -2 -1 -1 -1 -1,(-6)</t>
-  </si>
-  <si>
-    <t>Celtic,-1 3 -1 0 1 2,(4)</t>
-  </si>
-  <si>
-    <t>Dundee,-1 0 -1 -1 -2 1,(-4)</t>
-  </si>
-  <si>
-    <t>Dundee United,-2 0 1 0 1 3,(3)</t>
-  </si>
-  <si>
-    <t>Hearts,2 0 0 3 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 0 1 -1 -3,(-1)</t>
-  </si>
-  <si>
-    <t>Livingston,-2 0 1 -3 -1 3,(-2)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 2 0 1 -2 -2,(0)</t>
-  </si>
-  <si>
-    <t>Rangers,1 1 0 1 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Ross County,0 -3 0 -1 -1 -1,(-6)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 -1 1 -1 2 -3,(-2)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 0 0 1 1 1,(3)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Ross County(12) Motherwell(6) St Johnstone(8) St Mirren(7) Celtic(4) Dundee(11)</t>
-  </si>
-  <si>
-    <t>Celtic,Rangers(1) Ross County(12) Livingston(10) Dundee United(3) Aberdeen(9) Motherwell(6)</t>
-  </si>
-  <si>
-    <t>Dundee,Motherwell(6) Livingston(10) Dundee United(3) Rangers(1) St Johnstone(8) Aberdeen(9)</t>
-  </si>
-  <si>
-    <t>Dundee United,Hearts(2) St Mirren(7) Dundee(11) Celtic(4) Ross County(12) Hibernian(5)</t>
-  </si>
-  <si>
-    <t>Hearts,Dundee United(3) Hibernian(5) Ross County(12) Livingston(10) Motherwell(6) Rangers(1)</t>
-  </si>
-  <si>
-    <t>Hibernian,Livingston(10) Hearts(2) St Mirren(7) St Johnstone(8) Rangers(1) Dundee United(3)</t>
-  </si>
-  <si>
-    <t>Livingston,Hibernian(5) Dundee(11) Celtic(4) Hearts(2) St Mirren(7) St Johnstone(8)</t>
-  </si>
-  <si>
-    <t>Motherwell,Dundee(11) Aberdeen(9) Rangers(1) Ross County(12) Hearts(2) Celtic(4)</t>
-  </si>
-  <si>
-    <t>Rangers,Celtic(4) St Johnstone(8) Motherwell(6) Dundee(11) Hibernian(5) Hearts(2)</t>
-  </si>
-  <si>
-    <t>Ross County,Aberdeen(9) Celtic(4) Hearts(2) Motherwell(6) Dundee United(3) St Mirren(7)</t>
-  </si>
-  <si>
-    <t>St Johnstone,St Mirren(7) Rangers(1) Aberdeen(9) Hibernian(5) Dundee(11) Livingston(10)</t>
-  </si>
-  <si>
-    <t>St Mirren,St Johnstone(8) Dundee United(3) Hibernian(5) Aberdeen(9) Livingston(10) Ross County(12)</t>
+    <t>Aberdeen,W W D D L L L L L</t>
+  </si>
+  <si>
+    <t>Celtic,L W W L W L D W W</t>
+  </si>
+  <si>
+    <t>Dundee,D L D L D L L L W</t>
+  </si>
+  <si>
+    <t>Dundee United,L W W L D W D W W</t>
+  </si>
+  <si>
+    <t>Hearts,W W D W D D W W D</t>
+  </si>
+  <si>
+    <t>Hibernian,W W D W D D W L L</t>
+  </si>
+  <si>
+    <t>Livingston,L L L L D W L L W</t>
+  </si>
+  <si>
+    <t>Motherwell,L D W W W D W L L</t>
+  </si>
+  <si>
+    <t>Rangers,W L W W W D W W D</t>
+  </si>
+  <si>
+    <t>Ross County,D L L D L D L L L</t>
+  </si>
+  <si>
+    <t>St Johnstone,D D L D L W L W L</t>
+  </si>
+  <si>
+    <t>St Mirren,D L L D D D W W W</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 2 1 1 0 0 2 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Celtic,1 6 6 0 3 0 1 2 2,(21)</t>
+  </si>
+  <si>
+    <t>Dundee,2 0 2 0 0 0 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 1 1 0 0 1 1 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Hearts,2 2 1 2 0 2 3 2 1,(15)</t>
+  </si>
+  <si>
+    <t>Hibernian,3 3 2 2 0 2 1 1 0,(14)</t>
+  </si>
+  <si>
+    <t>Livingston,0 1 1 0 0 1 0 0 3,(6)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 1 2 1 2 1 2 0 0,(11)</t>
+  </si>
+  <si>
+    <t>Rangers,3 0 4 1 2 1 1 2 1,(15)</t>
+  </si>
+  <si>
+    <t>Ross County,0 0 2 1 0 2 1 0 2,(8)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 0 0 1 1 0 3 0,(6)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 1 0 0 0 2 3 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Aberdeen,0 1 1 1 2 1 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Celtic,2 0 0 1 0 1 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Dundee,2 6 2 1 0 1 1 3 1,(17)</t>
+  </si>
+  <si>
+    <t>Dundee United,2 0 0 2 0 0 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Hearts,1 1 1 0 0 2 0 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 2 0 0 2 0 2 3,(11)</t>
+  </si>
+  <si>
+    <t>Livingston,3 2 2 2 0 0 3 1 0,(13)</t>
+  </si>
+  <si>
+    <t>Motherwell,3 1 1 0 0 1 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Rangers,0 1 2 0 1 1 0 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Ross County,0 3 4 1 3 2 2 1 3,(19)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 1 0 2 0 1 1 3,(9)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 2 6 0 0 2 2 0 2,(16)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 3 2 2 2 1 5 3 3,(23)</t>
+  </si>
+  <si>
+    <t>Celtic,3 6 6 1 3 1 2 3 2,(27)</t>
+  </si>
+  <si>
+    <t>Dundee,4 6 4 1 0 1 1 4 3,(24)</t>
+  </si>
+  <si>
+    <t>Dundee United,2 1 1 2 0 1 2 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Hearts,3 3 2 2 0 4 3 2 2,(21)</t>
+  </si>
+  <si>
+    <t>Hibernian,5 3 4 2 0 4 1 3 3,(25)</t>
+  </si>
+  <si>
+    <t>Livingston,3 3 3 2 0 1 3 1 3,(19)</t>
+  </si>
+  <si>
+    <t>Motherwell,5 2 3 1 2 2 3 2 2,(22)</t>
+  </si>
+  <si>
+    <t>Rangers,3 1 6 1 3 2 1 3 2,(22)</t>
+  </si>
+  <si>
+    <t>Ross County,0 3 6 2 3 4 3 1 5,(27)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 2 1 0 3 1 1 4 3,(15)</t>
+  </si>
+  <si>
+    <t>St Mirren,4 3 6 0 0 4 5 1 5,(28)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2-0 1-2 1-1 1-1 2-0 0-1 3-2 1-2 2-1</t>
+  </si>
+  <si>
+    <t>Celtic,2-1 6-0 6-0 1-0 3-0 1-0 1-1 1-2 0-2</t>
+  </si>
+  <si>
+    <t>Dundee,2-2 6-0 2-2 1-0 0-0 1-0 0-1 3-1 2-1</t>
+  </si>
+  <si>
+    <t>Dundee United,2-0 1-0 0-1 0-2 0-0 1-0 1-1 1-0 0-3</t>
+  </si>
+  <si>
+    <t>Hearts,2-1 1-2 1-1 0-2 0-0 2-2 3-0 2-0 1-1</t>
+  </si>
+  <si>
+    <t>Hibernian,2-3 3-0 2-2 2-0 0-0 2-2 1-0 2-1 0-3</t>
+  </si>
+  <si>
+    <t>Livingston,3-0 1-2 1-2 2-0 0-0 1-0 3-0 0-1 0-3</t>
+  </si>
+  <si>
+    <t>Motherwell,2-3 1-1 1-2 1-0 2-0 1-1 2-1 2-0 0-2</t>
+  </si>
+  <si>
+    <t>Rangers,3-0 1-0 2-4 1-0 1-2 1-1 0-1 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Ross County,0-0 3-0 2-4 1-1 3-0 2-2 2-1 1-0 2-3</t>
+  </si>
+  <si>
+    <t>St Johnstone,0-0 1-1 0-1 0-0 1-2 0-1 1-0 3-1 0-3</t>
+  </si>
+  <si>
+    <t>St Mirren,2-2 1-2 6-0 0-0 0-0 2-2 3-2 0-1 2-3</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 1 0 0 -2 -1 -1 -1 -1,(-3)</t>
+  </si>
+  <si>
+    <t>Celtic,-1 6 6 -1 3 -1 0 1 2,(15)</t>
+  </si>
+  <si>
+    <t>Dundee,0 -6 0 -1 0 -1 -1 -2 1,(-10)</t>
+  </si>
+  <si>
+    <t>Dundee United,-2 1 1 -2 0 1 0 1 3,(3)</t>
+  </si>
+  <si>
+    <t>Hearts,1 1 0 2 0 0 3 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Hibernian,1 3 0 2 0 0 1 -1 -3,(3)</t>
+  </si>
+  <si>
+    <t>Livingston,-3 -1 -1 -2 0 1 -3 -1 3,(-7)</t>
+  </si>
+  <si>
+    <t>Motherwell,-1 0 1 1 2 0 1 -2 -2,(0)</t>
+  </si>
+  <si>
+    <t>Rangers,3 -1 2 1 1 0 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Ross County,0 -3 -2 0 -3 0 -1 -1 -1,(-11)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 0 -1 0 -1 1 -1 2 -3,(-3)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 -1 -6 0 0 0 1 1 1,(-4)</t>
+  </si>
+  <si>
+    <t>Aberdeen,Dundee United(3) Livingston(10) Hearts(2) Ross County(12) Motherwell(6) St Johnstone(8) St Mirren(7) Celtic(4) Dundee(11)</t>
+  </si>
+  <si>
+    <t>Celtic,Hearts(2) Dundee(11) St Mirren(7) Rangers(1) Ross County(12) Livingston(10) Dundee United(3) Aberdeen(9) Motherwell(6)</t>
+  </si>
+  <si>
+    <t>Dundee,St Mirren(7) Celtic(4) Hibernian(5) Motherwell(6) Livingston(10) Dundee United(3) Rangers(1) St Johnstone(8) Aberdeen(9)</t>
+  </si>
+  <si>
+    <t>Dundee United,Aberdeen(9) Rangers(1) St Johnstone(8) Hearts(2) St Mirren(7) Dundee(11) Celtic(4) Ross County(12) Hibernian(5)</t>
+  </si>
+  <si>
+    <t>Hearts,Celtic(4) St Mirren(7) Aberdeen(9) Dundee United(3) Hibernian(5) Ross County(12) Livingston(10) Motherwell(6) Rangers(1)</t>
+  </si>
+  <si>
+    <t>Hibernian,Motherwell(6) Ross County(12) Dundee(11) Livingston(10) Hearts(2) St Mirren(7) St Johnstone(8) Rangers(1) Dundee United(3)</t>
+  </si>
+  <si>
+    <t>Livingston,Rangers(1) Aberdeen(9) Motherwell(6) Hibernian(5) Dundee(11) Celtic(4) Hearts(2) St Mirren(7) St Johnstone(8)</t>
+  </si>
+  <si>
+    <t>Motherwell,Hibernian(5) St Johnstone(8) Livingston(10) Dundee(11) Aberdeen(9) Rangers(1) Ross County(12) Hearts(2) Celtic(4)</t>
+  </si>
+  <si>
+    <t>Rangers,Livingston(10) Dundee United(3) Ross County(12) Celtic(4) St Johnstone(8) Motherwell(6) Dundee(11) Hibernian(5) Hearts(2)</t>
+  </si>
+  <si>
+    <t>Ross County,St Johnstone(8) Hibernian(5) Rangers(1) Aberdeen(9) Celtic(4) Hearts(2) Motherwell(6) Dundee United(3) St Mirren(7)</t>
+  </si>
+  <si>
+    <t>St Johnstone,Ross County(12) Motherwell(6) Dundee United(3) St Mirren(7) Rangers(1) Aberdeen(9) Hibernian(5) Dundee(11) Livingston(10)</t>
+  </si>
+  <si>
+    <t>St Mirren,Dundee(11) Hearts(2) Celtic(4) St Johnstone(8) Dundee United(3) Hibernian(5) Aberdeen(9) Livingston(10) Ross County(12)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -678,256 +678,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aberdeen,W W D D L L L L L</t>
-  </si>
-  <si>
-    <t>Celtic,L W W L W L D W W</t>
-  </si>
-  <si>
-    <t>Dundee,D L D L D L L L W</t>
-  </si>
-  <si>
-    <t>Dundee United,L W W L D W D W W</t>
-  </si>
-  <si>
-    <t>Hearts,W W D W D D W W D</t>
-  </si>
-  <si>
-    <t>Hibernian,W W D W D D W L L</t>
-  </si>
-  <si>
-    <t>Livingston,L L L L D W L L W</t>
-  </si>
-  <si>
-    <t>Motherwell,L D W W W D W L L</t>
-  </si>
-  <si>
-    <t>Rangers,W L W W W D W W D</t>
-  </si>
-  <si>
-    <t>Ross County,D L L D L D L L L</t>
-  </si>
-  <si>
-    <t>St Johnstone,D D L D L W L W L</t>
-  </si>
-  <si>
-    <t>St Mirren,D L L D D D W W W</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 2 1 1 0 0 2 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Celtic,1 6 6 0 3 0 1 2 2,(21)</t>
-  </si>
-  <si>
-    <t>Dundee,2 0 2 0 0 0 0 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 1 1 0 0 1 1 1 3,(8)</t>
-  </si>
-  <si>
-    <t>Hearts,2 2 1 2 0 2 3 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Hibernian,3 3 2 2 0 2 1 1 0,(14)</t>
-  </si>
-  <si>
-    <t>Livingston,0 1 1 0 0 1 0 0 3,(6)</t>
-  </si>
-  <si>
-    <t>Motherwell,2 1 2 1 2 1 2 0 0,(11)</t>
-  </si>
-  <si>
-    <t>Rangers,3 0 4 1 2 1 1 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Ross County,0 0 2 1 0 2 1 0 2,(8)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 0 0 1 1 0 3 0,(6)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 1 0 0 0 2 3 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Aberdeen,0 1 1 1 2 1 3 2 2,(13)</t>
-  </si>
-  <si>
-    <t>Celtic,2 0 0 1 0 1 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Dundee,2 6 2 1 0 1 1 3 1,(17)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 0 0 2 0 0 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 1 0 0 2 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 2 0 0 2 0 2 3,(11)</t>
-  </si>
-  <si>
-    <t>Livingston,3 2 2 2 0 0 3 1 0,(13)</t>
-  </si>
-  <si>
-    <t>Motherwell,3 1 1 0 0 1 1 2 2,(11)</t>
-  </si>
-  <si>
-    <t>Rangers,0 1 2 0 1 1 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 4 1 3 2 2 1 3,(19)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 1 0 2 0 1 1 3,(9)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 2 6 0 0 2 2 0 2,(16)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 3 2 2 2 1 5 3 3,(23)</t>
-  </si>
-  <si>
-    <t>Celtic,3 6 6 1 3 1 2 3 2,(27)</t>
-  </si>
-  <si>
-    <t>Dundee,4 6 4 1 0 1 1 4 3,(24)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 1 1 2 0 1 2 1 3,(13)</t>
-  </si>
-  <si>
-    <t>Hearts,3 3 2 2 0 4 3 2 2,(21)</t>
-  </si>
-  <si>
-    <t>Hibernian,5 3 4 2 0 4 1 3 3,(25)</t>
-  </si>
-  <si>
-    <t>Livingston,3 3 3 2 0 1 3 1 3,(19)</t>
-  </si>
-  <si>
-    <t>Motherwell,5 2 3 1 2 2 3 2 2,(22)</t>
-  </si>
-  <si>
-    <t>Rangers,3 1 6 1 3 2 1 3 2,(22)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 6 2 3 4 3 1 5,(27)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 2 1 0 3 1 1 4 3,(15)</t>
-  </si>
-  <si>
-    <t>St Mirren,4 3 6 0 0 4 5 1 5,(28)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2-0 1-2 1-1 1-1 2-0 0-1 3-2 1-2 2-1</t>
-  </si>
-  <si>
-    <t>Celtic,2-1 6-0 6-0 1-0 3-0 1-0 1-1 1-2 0-2</t>
-  </si>
-  <si>
-    <t>Dundee,2-2 6-0 2-2 1-0 0-0 1-0 0-1 3-1 2-1</t>
-  </si>
-  <si>
-    <t>Dundee United,2-0 1-0 0-1 0-2 0-0 1-0 1-1 1-0 0-3</t>
-  </si>
-  <si>
-    <t>Hearts,2-1 1-2 1-1 0-2 0-0 2-2 3-0 2-0 1-1</t>
-  </si>
-  <si>
-    <t>Hibernian,2-3 3-0 2-2 2-0 0-0 2-2 1-0 2-1 0-3</t>
-  </si>
-  <si>
-    <t>Livingston,3-0 1-2 1-2 2-0 0-0 1-0 3-0 0-1 0-3</t>
-  </si>
-  <si>
-    <t>Motherwell,2-3 1-1 1-2 1-0 2-0 1-1 2-1 2-0 0-2</t>
-  </si>
-  <si>
-    <t>Rangers,3-0 1-0 2-4 1-0 1-2 1-1 0-1 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Ross County,0-0 3-0 2-4 1-1 3-0 2-2 2-1 1-0 2-3</t>
-  </si>
-  <si>
-    <t>St Johnstone,0-0 1-1 0-1 0-0 1-2 0-1 1-0 3-1 0-3</t>
-  </si>
-  <si>
-    <t>St Mirren,2-2 1-2 6-0 0-0 0-0 2-2 3-2 0-1 2-3</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 1 0 0 -2 -1 -1 -1 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Celtic,-1 6 6 -1 3 -1 0 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Dundee,0 -6 0 -1 0 -1 -1 -2 1,(-10)</t>
-  </si>
-  <si>
-    <t>Dundee United,-2 1 1 -2 0 1 0 1 3,(3)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 0 2 0 0 3 2 0,(9)</t>
-  </si>
-  <si>
-    <t>Hibernian,1 3 0 2 0 0 1 -1 -3,(3)</t>
-  </si>
-  <si>
-    <t>Livingston,-3 -1 -1 -2 0 1 -3 -1 3,(-7)</t>
-  </si>
-  <si>
-    <t>Motherwell,-1 0 1 1 2 0 1 -2 -2,(0)</t>
-  </si>
-  <si>
-    <t>Rangers,3 -1 2 1 1 0 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Ross County,0 -3 -2 0 -3 0 -1 -1 -1,(-11)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 0 -1 0 -1 1 -1 2 -3,(-3)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 -1 -6 0 0 0 1 1 1,(-4)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Dundee United(3) Livingston(10) Hearts(2) Ross County(12) Motherwell(6) St Johnstone(8) St Mirren(7) Celtic(4) Dundee(11)</t>
-  </si>
-  <si>
-    <t>Celtic,Hearts(2) Dundee(11) St Mirren(7) Rangers(1) Ross County(12) Livingston(10) Dundee United(3) Aberdeen(9) Motherwell(6)</t>
-  </si>
-  <si>
-    <t>Dundee,St Mirren(7) Celtic(4) Hibernian(5) Motherwell(6) Livingston(10) Dundee United(3) Rangers(1) St Johnstone(8) Aberdeen(9)</t>
-  </si>
-  <si>
-    <t>Dundee United,Aberdeen(9) Rangers(1) St Johnstone(8) Hearts(2) St Mirren(7) Dundee(11) Celtic(4) Ross County(12) Hibernian(5)</t>
-  </si>
-  <si>
-    <t>Hearts,Celtic(4) St Mirren(7) Aberdeen(9) Dundee United(3) Hibernian(5) Ross County(12) Livingston(10) Motherwell(6) Rangers(1)</t>
-  </si>
-  <si>
-    <t>Hibernian,Motherwell(6) Ross County(12) Dundee(11) Livingston(10) Hearts(2) St Mirren(7) St Johnstone(8) Rangers(1) Dundee United(3)</t>
-  </si>
-  <si>
-    <t>Livingston,Rangers(1) Aberdeen(9) Motherwell(6) Hibernian(5) Dundee(11) Celtic(4) Hearts(2) St Mirren(7) St Johnstone(8)</t>
-  </si>
-  <si>
-    <t>Motherwell,Hibernian(5) St Johnstone(8) Livingston(10) Dundee(11) Aberdeen(9) Rangers(1) Ross County(12) Hearts(2) Celtic(4)</t>
-  </si>
-  <si>
-    <t>Rangers,Livingston(10) Dundee United(3) Ross County(12) Celtic(4) St Johnstone(8) Motherwell(6) Dundee(11) Hibernian(5) Hearts(2)</t>
-  </si>
-  <si>
-    <t>Ross County,St Johnstone(8) Hibernian(5) Rangers(1) Aberdeen(9) Celtic(4) Hearts(2) Motherwell(6) Dundee United(3) St Mirren(7)</t>
-  </si>
-  <si>
-    <t>St Johnstone,Ross County(12) Motherwell(6) Dundee United(3) St Mirren(7) Rangers(1) Aberdeen(9) Hibernian(5) Dundee(11) Livingston(10)</t>
-  </si>
-  <si>
-    <t>St Mirren,Dundee(11) Hearts(2) Celtic(4) St Johnstone(8) Dundee United(3) Hibernian(5) Aberdeen(9) Livingston(10) Ross County(12)</t>
+    <t>Aberdeen,D L L L L L</t>
+  </si>
+  <si>
+    <t>Celtic,L W L D W W</t>
+  </si>
+  <si>
+    <t>Dundee,L D L L L W</t>
+  </si>
+  <si>
+    <t>Dundee United,L D W D W W</t>
+  </si>
+  <si>
+    <t>Hearts,W D D W W D</t>
+  </si>
+  <si>
+    <t>Hibernian,W D D W L L</t>
+  </si>
+  <si>
+    <t>Livingston,L D W L L W</t>
+  </si>
+  <si>
+    <t>Motherwell,W W D W L L</t>
+  </si>
+  <si>
+    <t>Rangers,W W D W W D</t>
+  </si>
+  <si>
+    <t>Ross County,D L D L L L</t>
+  </si>
+  <si>
+    <t>St Johnstone,D L W L W L</t>
+  </si>
+  <si>
+    <t>St Mirren,D D D W W W</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 0 0 2 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Celtic,0 3 0 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Dundee,0 0 0 0 1 2,(3)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 0 1 1 1 3,(6)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 2 3 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 2 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Livingston,0 0 1 0 0 3,(4)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 2 1 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Rangers,1 2 1 1 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Ross County,1 0 2 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 1 0 3 0,(5)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 0 2 3 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 2 1 3 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Celtic,1 0 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Dundee,1 0 1 1 3 1,(7)</t>
+  </si>
+  <si>
+    <t>Dundee United,2 0 0 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Hearts,0 0 2 0 0 1,(3)</t>
+  </si>
+  <si>
+    <t>Hibernian,0 0 2 0 2 3,(7)</t>
+  </si>
+  <si>
+    <t>Livingston,2 0 0 3 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Motherwell,0 0 1 1 2 2,(6)</t>
+  </si>
+  <si>
+    <t>Rangers,0 1 1 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Ross County,1 3 2 2 1 3,(12)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 2 0 1 1 3,(7)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 0 2 2 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 2 1 5 3 3,(16)</t>
+  </si>
+  <si>
+    <t>Celtic,1 3 1 2 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Dundee,1 0 1 1 4 3,(10)</t>
+  </si>
+  <si>
+    <t>Dundee United,2 0 1 2 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 4 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 4 1 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Livingston,2 0 1 3 1 3,(10)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 2 2 3 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Rangers,1 3 2 1 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Ross County,2 3 4 3 1 5,(18)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 3 1 1 4 3,(12)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 0 4 5 1 5,(15)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1-1 2-0 0-1 3-2 1-2 2-1</t>
+  </si>
+  <si>
+    <t>Celtic,1-0 3-0 1-0 1-1 1-2 0-2</t>
+  </si>
+  <si>
+    <t>Dundee,1-0 0-0 1-0 0-1 3-1 2-1</t>
+  </si>
+  <si>
+    <t>Dundee United,0-2 0-0 1-0 1-1 1-0 0-3</t>
+  </si>
+  <si>
+    <t>Hearts,0-2 0-0 2-2 3-0 2-0 1-1</t>
+  </si>
+  <si>
+    <t>Hibernian,2-0 0-0 2-2 1-0 2-1 0-3</t>
+  </si>
+  <si>
+    <t>Livingston,2-0 0-0 1-0 3-0 0-1 0-3</t>
+  </si>
+  <si>
+    <t>Motherwell,1-0 2-0 1-1 2-1 2-0 0-2</t>
+  </si>
+  <si>
+    <t>Rangers,1-0 1-2 1-1 0-1 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Ross County,1-1 3-0 2-2 2-1 1-0 2-3</t>
+  </si>
+  <si>
+    <t>St Johnstone,0-0 1-2 0-1 1-0 3-1 0-3</t>
+  </si>
+  <si>
+    <t>St Mirren,0-0 0-0 2-2 3-2 0-1 2-3</t>
+  </si>
+  <si>
+    <t>Aberdeen,0 -2 -1 -1 -1 -1,(-6)</t>
+  </si>
+  <si>
+    <t>Celtic,-1 3 -1 0 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Dundee,-1 0 -1 -1 -2 1,(-4)</t>
+  </si>
+  <si>
+    <t>Dundee United,-2 0 1 0 1 3,(3)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 0 3 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 0 1 -1 -3,(-1)</t>
+  </si>
+  <si>
+    <t>Livingston,-2 0 1 -3 -1 3,(-2)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 2 0 1 -2 -2,(0)</t>
+  </si>
+  <si>
+    <t>Rangers,1 1 0 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Ross County,0 -3 0 -1 -1 -1,(-6)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 -1 1 -1 2 -3,(-2)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 0 0 1 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Aberdeen,Ross County(12) Motherwell(6) St Johnstone(8) St Mirren(7) Celtic(4) Dundee(11)</t>
+  </si>
+  <si>
+    <t>Celtic,Rangers(1) Ross County(12) Livingston(10) Dundee United(3) Aberdeen(9) Motherwell(6)</t>
+  </si>
+  <si>
+    <t>Dundee,Motherwell(6) Livingston(10) Dundee United(3) Rangers(1) St Johnstone(8) Aberdeen(9)</t>
+  </si>
+  <si>
+    <t>Dundee United,Hearts(2) St Mirren(7) Dundee(11) Celtic(4) Ross County(12) Hibernian(5)</t>
+  </si>
+  <si>
+    <t>Hearts,Dundee United(3) Hibernian(5) Ross County(12) Livingston(10) Motherwell(6) Rangers(1)</t>
+  </si>
+  <si>
+    <t>Hibernian,Livingston(10) Hearts(2) St Mirren(7) St Johnstone(8) Rangers(1) Dundee United(3)</t>
+  </si>
+  <si>
+    <t>Livingston,Hibernian(5) Dundee(11) Celtic(4) Hearts(2) St Mirren(7) St Johnstone(8)</t>
+  </si>
+  <si>
+    <t>Motherwell,Dundee(11) Aberdeen(9) Rangers(1) Ross County(12) Hearts(2) Celtic(4)</t>
+  </si>
+  <si>
+    <t>Rangers,Celtic(4) St Johnstone(8) Motherwell(6) Dundee(11) Hibernian(5) Hearts(2)</t>
+  </si>
+  <si>
+    <t>Ross County,Aberdeen(9) Celtic(4) Hearts(2) Motherwell(6) Dundee United(3) St Mirren(7)</t>
+  </si>
+  <si>
+    <t>St Johnstone,St Mirren(7) Rangers(1) Aberdeen(9) Hibernian(5) Dundee(11) Livingston(10)</t>
+  </si>
+  <si>
+    <t>St Mirren,St Johnstone(8) Dundee United(3) Hibernian(5) Aberdeen(9) Livingston(10) Ross County(12)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -726,256 +726,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aberdeen,W W D D L L L L L W D</t>
-  </si>
-  <si>
-    <t>Celtic,L W W L W L D W W W W</t>
-  </si>
-  <si>
-    <t>Dundee,D L D L D L L L W D L</t>
-  </si>
-  <si>
-    <t>Dundee United,L W W L D W D W W W D</t>
-  </si>
-  <si>
-    <t>Hearts,W W D W D D W W D D D</t>
-  </si>
-  <si>
-    <t>Hibernian,W W D W D D W L L L L</t>
-  </si>
-  <si>
-    <t>Livingston,L L L L D W L L W W D</t>
-  </si>
-  <si>
-    <t>Motherwell,L D W W W D W L L L D</t>
-  </si>
-  <si>
-    <t>Rangers,W L W W W D W W D W D</t>
-  </si>
-  <si>
-    <t>Ross County,D L L D L D L L L L W</t>
-  </si>
-  <si>
-    <t>St Johnstone,D D L D L W L W L L D</t>
-  </si>
-  <si>
-    <t>St Mirren,D L L D D D W W W L D</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 2 1 1 0 0 2 1 1 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Celtic,1 6 6 0 3 0 1 2 2 2 3,(26)</t>
-  </si>
-  <si>
-    <t>Dundee,2 0 2 0 0 0 0 1 2 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 1 1 0 0 1 1 1 3 2 1,(11)</t>
-  </si>
-  <si>
-    <t>Hearts,2 2 1 2 0 2 3 2 1 1 1,(17)</t>
-  </si>
-  <si>
-    <t>Hibernian,3 3 2 2 0 2 1 1 0 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Livingston,0 1 1 0 0 1 0 0 3 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Motherwell,2 1 2 1 2 1 2 0 0 1 2,(14)</t>
-  </si>
-  <si>
-    <t>Rangers,3 0 4 1 2 1 1 2 1 2 2,(19)</t>
-  </si>
-  <si>
-    <t>Ross County,0 0 2 1 0 2 1 0 2 2 5,(15)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 0 0 1 1 0 3 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 1 0 0 0 2 3 1 3 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Aberdeen,0 1 1 1 2 1 3 2 2 0 2,(15)</t>
-  </si>
-  <si>
-    <t>Celtic,2 0 0 1 0 1 1 1 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Dundee,2 6 2 1 0 1 1 3 1 1 5,(23)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 0 0 2 0 0 1 0 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 1 0 0 2 0 0 1 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 2 0 0 2 0 2 3 1 3,(15)</t>
-  </si>
-  <si>
-    <t>Livingston,3 2 2 2 0 0 3 1 0 2 1,(16)</t>
-  </si>
-  <si>
-    <t>Motherwell,3 1 1 0 0 1 1 2 2 2 2,(15)</t>
-  </si>
-  <si>
-    <t>Rangers,0 1 2 0 1 1 0 1 1 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 4 1 3 2 2 1 3 3 0,(22)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 1 0 2 0 1 1 3 2 1,(12)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 2 6 0 0 2 2 0 2 2 2,(20)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 3 2 2 2 1 5 3 3 1 4,(28)</t>
-  </si>
-  <si>
-    <t>Celtic,3 6 6 1 3 1 2 3 2 2 4,(33)</t>
-  </si>
-  <si>
-    <t>Dundee,4 6 4 1 0 1 1 4 3 2 5,(31)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 1 1 2 0 1 2 1 3 3 2,(18)</t>
-  </si>
-  <si>
-    <t>Hearts,3 3 2 2 0 4 3 2 2 2 2,(25)</t>
-  </si>
-  <si>
-    <t>Hibernian,5 3 4 2 0 4 1 3 3 1 4,(30)</t>
-  </si>
-  <si>
-    <t>Livingston,3 3 3 2 0 1 3 1 3 5 2,(26)</t>
-  </si>
-  <si>
-    <t>Motherwell,5 2 3 1 2 2 3 2 2 3 4,(29)</t>
-  </si>
-  <si>
-    <t>Rangers,3 1 6 1 3 2 1 3 2 3 4,(29)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 6 2 3 4 3 1 5 5 5,(37)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 2 1 0 3 1 1 4 3 2 2,(19)</t>
-  </si>
-  <si>
-    <t>St Mirren,4 3 6 0 0 4 5 1 5 3 4,(35)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2-0 1-2 1-1 1-1 2-0 0-1 3-2 1-2 2-1 1-0 2-2</t>
-  </si>
-  <si>
-    <t>Celtic,2-1 6-0 6-0 1-0 3-0 1-0 1-1 1-2 0-2 2-0 1-3</t>
-  </si>
-  <si>
-    <t>Dundee,2-2 6-0 2-2 1-0 0-0 1-0 0-1 3-1 2-1 1-1 0-5</t>
-  </si>
-  <si>
-    <t>Dundee United,2-0 1-0 0-1 0-2 0-0 1-0 1-1 1-0 0-3 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Hearts,2-1 1-2 1-1 0-2 0-0 2-2 3-0 2-0 1-1 1-1 1-1</t>
-  </si>
-  <si>
-    <t>Hibernian,2-3 3-0 2-2 2-0 0-0 2-2 1-0 2-1 0-3 1-0 1-3</t>
-  </si>
-  <si>
-    <t>Livingston,3-0 1-2 1-2 2-0 0-0 1-0 3-0 0-1 0-3 2-3 1-1</t>
-  </si>
-  <si>
-    <t>Motherwell,2-3 1-1 1-2 1-0 2-0 1-1 2-1 2-0 0-2 2-1 2-2</t>
-  </si>
-  <si>
-    <t>Rangers,3-0 1-0 2-4 1-0 1-2 1-1 0-1 2-1 1-1 1-2 2-2</t>
-  </si>
-  <si>
-    <t>Ross County,0-0 3-0 2-4 1-1 3-0 2-2 2-1 1-0 2-3 2-3 0-5</t>
-  </si>
-  <si>
-    <t>St Johnstone,0-0 1-1 0-1 0-0 1-2 0-1 1-0 3-1 0-3 2-0 1-1</t>
-  </si>
-  <si>
-    <t>St Mirren,2-2 1-2 6-0 0-0 0-0 2-2 3-2 0-1 2-3 1-2 2-2</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 1 0 0 -2 -1 -1 -1 -1 1 0,(-2)</t>
-  </si>
-  <si>
-    <t>Celtic,-1 6 6 -1 3 -1 0 1 2 2 2,(19)</t>
-  </si>
-  <si>
-    <t>Dundee,0 -6 0 -1 0 -1 -1 -2 1 0 -5,(-15)</t>
-  </si>
-  <si>
-    <t>Dundee United,-2 1 1 -2 0 1 0 1 3 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 0 2 0 0 3 2 0 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Hibernian,1 3 0 2 0 0 1 -1 -3 -1 -2,(0)</t>
-  </si>
-  <si>
-    <t>Livingston,-3 -1 -1 -2 0 1 -3 -1 3 1 0,(-6)</t>
-  </si>
-  <si>
-    <t>Motherwell,-1 0 1 1 2 0 1 -2 -2 -1 0,(-1)</t>
-  </si>
-  <si>
-    <t>Rangers,3 -1 2 1 1 0 1 1 0 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Ross County,0 -3 -2 0 -3 0 -1 -1 -1 -1 5,(-7)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 0 -1 0 -1 1 -1 2 -3 -2 0,(-5)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 -1 -6 0 0 0 1 1 1 -1 0,(-5)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Dundee United(3) Livingston(9) Hearts(4) Ross County(12) Motherwell(6) St Johnstone(10) St Mirren(7) Celtic(2) Dundee(11) Hibernian(5) Rangers(1)</t>
-  </si>
-  <si>
-    <t>Celtic,Hearts(4) Dundee(11) St Mirren(7) Rangers(1) Ross County(12) Livingston(9) Dundee United(3) Aberdeen(8) Motherwell(6) St Johnstone(10) Hibernian(5)</t>
-  </si>
-  <si>
-    <t>Dundee,St Mirren(7) Celtic(2) Hibernian(5) Motherwell(6) Livingston(9) Dundee United(3) Rangers(1) St Johnstone(10) Aberdeen(8) Hearts(4) Ross County(12)</t>
-  </si>
-  <si>
-    <t>Dundee United,Aberdeen(8) Rangers(1) St Johnstone(10) Hearts(4) St Mirren(7) Dundee(11) Celtic(2) Ross County(12) Hibernian(5) Motherwell(6) Livingston(9)</t>
-  </si>
-  <si>
-    <t>Hearts,Celtic(2) St Mirren(7) Aberdeen(8) Dundee United(3) Hibernian(5) Ross County(12) Livingston(9) Motherwell(6) Rangers(1) Dundee(11) St Johnstone(10)</t>
-  </si>
-  <si>
-    <t>Hibernian,Motherwell(6) Ross County(12) Dundee(11) Livingston(9) Hearts(4) St Mirren(7) St Johnstone(10) Rangers(1) Dundee United(3) Aberdeen(8) Celtic(2)</t>
-  </si>
-  <si>
-    <t>Livingston,Rangers(1) Aberdeen(8) Motherwell(6) Hibernian(5) Dundee(11) Celtic(2) Hearts(4) St Mirren(7) St Johnstone(10) Ross County(12) Dundee United(3)</t>
-  </si>
-  <si>
-    <t>Motherwell,Hibernian(5) St Johnstone(10) Livingston(9) Dundee(11) Aberdeen(8) Rangers(1) Ross County(12) Hearts(4) Celtic(2) Dundee United(3) St Mirren(7)</t>
-  </si>
-  <si>
-    <t>Rangers,Livingston(9) Dundee United(3) Ross County(12) Celtic(2) St Johnstone(10) Motherwell(6) Dundee(11) Hibernian(5) Hearts(4) St Mirren(7) Aberdeen(8)</t>
-  </si>
-  <si>
-    <t>Ross County,St Johnstone(10) Hibernian(5) Rangers(1) Aberdeen(8) Celtic(2) Hearts(4) Motherwell(6) Dundee United(3) St Mirren(7) Livingston(9) Dundee(11)</t>
-  </si>
-  <si>
-    <t>St Johnstone,Ross County(12) Motherwell(6) Dundee United(3) St Mirren(7) Rangers(1) Aberdeen(8) Hibernian(5) Dundee(11) Livingston(9) Celtic(2) Hearts(4)</t>
-  </si>
-  <si>
-    <t>St Mirren,Dundee(11) Hearts(4) Celtic(2) St Johnstone(10) Dundee United(3) Hibernian(5) Aberdeen(8) Livingston(9) Ross County(12) Rangers(1) Motherwell(6)</t>
+    <t>Aberdeen,L L L L W D</t>
+  </si>
+  <si>
+    <t>Celtic,L D W W W W</t>
+  </si>
+  <si>
+    <t>Dundee,L L L W D L</t>
+  </si>
+  <si>
+    <t>Dundee United,W D W W W D</t>
+  </si>
+  <si>
+    <t>Hearts,D W W D D D</t>
+  </si>
+  <si>
+    <t>Hibernian,D W L L L L</t>
+  </si>
+  <si>
+    <t>Livingston,W L L W W D</t>
+  </si>
+  <si>
+    <t>Motherwell,D W L L L D</t>
+  </si>
+  <si>
+    <t>Rangers,D W W D W D</t>
+  </si>
+  <si>
+    <t>Ross County,D L L L L W</t>
+  </si>
+  <si>
+    <t>St Johnstone,W L W L L D</t>
+  </si>
+  <si>
+    <t>St Mirren,D W W W L D</t>
+  </si>
+  <si>
+    <t>Aberdeen,0 2 1 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Celtic,0 1 2 2 2 3,(10)</t>
+  </si>
+  <si>
+    <t>Dundee,0 0 1 2 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 1 1 3 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Hearts,2 3 2 1 1 1,(10)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 1 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Livingston,1 0 0 3 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 2 0 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Rangers,1 1 2 1 2 2,(9)</t>
+  </si>
+  <si>
+    <t>Ross County,2 1 0 2 2 5,(12)</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 0 3 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 3 1 3 1 2,(12)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 3 2 2 0 2,(10)</t>
+  </si>
+  <si>
+    <t>Celtic,1 1 1 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Dundee,1 1 3 1 1 5,(12)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 1 0 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 0 1 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 2 3 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Livingston,0 3 1 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 1 2 2 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Rangers,1 0 1 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Ross County,2 2 1 3 3 0,(11)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 1 3 2 1,(8)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 2 0 2 2 2,(10)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 5 3 3 1 4,(17)</t>
+  </si>
+  <si>
+    <t>Celtic,1 2 3 2 2 4,(14)</t>
+  </si>
+  <si>
+    <t>Dundee,1 1 4 3 2 5,(16)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 2 1 3 3 2,(12)</t>
+  </si>
+  <si>
+    <t>Hearts,4 3 2 2 2 2,(15)</t>
+  </si>
+  <si>
+    <t>Hibernian,4 1 3 3 1 4,(16)</t>
+  </si>
+  <si>
+    <t>Livingston,1 3 1 3 5 2,(15)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 3 2 2 3 4,(16)</t>
+  </si>
+  <si>
+    <t>Rangers,2 1 3 2 3 4,(15)</t>
+  </si>
+  <si>
+    <t>Ross County,4 3 1 5 5 5,(23)</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 1 4 3 2 2,(13)</t>
+  </si>
+  <si>
+    <t>St Mirren,4 5 1 5 3 4,(22)</t>
+  </si>
+  <si>
+    <t>Aberdeen,0-1 3-2 1-2 2-1 1-0 2-2</t>
+  </si>
+  <si>
+    <t>Celtic,1-0 1-1 1-2 0-2 2-0 1-3</t>
+  </si>
+  <si>
+    <t>Dundee,1-0 0-1 3-1 2-1 1-1 0-5</t>
+  </si>
+  <si>
+    <t>Dundee United,1-0 1-1 1-0 0-3 2-1 1-1</t>
+  </si>
+  <si>
+    <t>Hearts,2-2 3-0 2-0 1-1 1-1 1-1</t>
+  </si>
+  <si>
+    <t>Hibernian,2-2 1-0 2-1 0-3 1-0 1-3</t>
+  </si>
+  <si>
+    <t>Livingston,1-0 3-0 0-1 0-3 2-3 1-1</t>
+  </si>
+  <si>
+    <t>Motherwell,1-1 2-1 2-0 0-2 2-1 2-2</t>
+  </si>
+  <si>
+    <t>Rangers,1-1 0-1 2-1 1-1 1-2 2-2</t>
+  </si>
+  <si>
+    <t>Ross County,2-2 2-1 1-0 2-3 2-3 0-5</t>
+  </si>
+  <si>
+    <t>St Johnstone,0-1 1-0 3-1 0-3 2-0 1-1</t>
+  </si>
+  <si>
+    <t>St Mirren,2-2 3-2 0-1 2-3 1-2 2-2</t>
+  </si>
+  <si>
+    <t>Aberdeen,-1 -1 -1 -1 1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Celtic,-1 0 1 2 2 2,(6)</t>
+  </si>
+  <si>
+    <t>Dundee,-1 -1 -2 1 0 -5,(-8)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 0 1 3 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Hearts,0 3 2 0 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Hibernian,0 1 -1 -3 -1 -2,(-6)</t>
+  </si>
+  <si>
+    <t>Livingston,1 -3 -1 3 1 0,(1)</t>
+  </si>
+  <si>
+    <t>Motherwell,0 1 -2 -2 -1 0,(-4)</t>
+  </si>
+  <si>
+    <t>Rangers,0 1 1 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Ross County,0 -1 -1 -1 -1 5,(1)</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 -1 2 -3 -2 0,(-3)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 1 1 1 -1 0,(2)</t>
+  </si>
+  <si>
+    <t>Aberdeen,St Johnstone(10) St Mirren(7) Celtic(2) Dundee(11) Hibernian(5) Rangers(1)</t>
+  </si>
+  <si>
+    <t>Celtic,Livingston(9) Dundee United(3) Aberdeen(8) Motherwell(6) St Johnstone(10) Hibernian(5)</t>
+  </si>
+  <si>
+    <t>Dundee,Dundee United(3) Rangers(1) St Johnstone(10) Aberdeen(8) Hearts(4) Ross County(12)</t>
+  </si>
+  <si>
+    <t>Dundee United,Dundee(11) Celtic(2) Ross County(12) Hibernian(5) Motherwell(6) Livingston(9)</t>
+  </si>
+  <si>
+    <t>Hearts,Ross County(12) Livingston(9) Motherwell(6) Rangers(1) Dundee(11) St Johnstone(10)</t>
+  </si>
+  <si>
+    <t>Hibernian,St Mirren(7) St Johnstone(10) Rangers(1) Dundee United(3) Aberdeen(8) Celtic(2)</t>
+  </si>
+  <si>
+    <t>Livingston,Celtic(2) Hearts(4) St Mirren(7) St Johnstone(10) Ross County(12) Dundee United(3)</t>
+  </si>
+  <si>
+    <t>Motherwell,Rangers(1) Ross County(12) Hearts(4) Celtic(2) Dundee United(3) St Mirren(7)</t>
+  </si>
+  <si>
+    <t>Rangers,Motherwell(6) Dundee(11) Hibernian(5) Hearts(4) St Mirren(7) Aberdeen(8)</t>
+  </si>
+  <si>
+    <t>Ross County,Hearts(4) Motherwell(6) Dundee United(3) St Mirren(7) Livingston(9) Dundee(11)</t>
+  </si>
+  <si>
+    <t>St Johnstone,Aberdeen(8) Hibernian(5) Dundee(11) Livingston(9) Celtic(2) Hearts(4)</t>
+  </si>
+  <si>
+    <t>St Mirren,Hibernian(5) Aberdeen(8) Livingston(9) Ross County(12) Rangers(1) Motherwell(6)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -750,256 +750,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aberdeen,W W D D L L L L L W D W L</t>
-  </si>
-  <si>
-    <t>Celtic,L W W L W L D W W W W D W</t>
-  </si>
-  <si>
-    <t>Dundee,D L D L D L L L W D L W L</t>
-  </si>
-  <si>
-    <t>Dundee United,L W W L D W D W W W D L L</t>
-  </si>
-  <si>
-    <t>Hearts,W W D W D D W W D D D L W</t>
-  </si>
-  <si>
-    <t>Hibernian,W W D W D D W L L L L</t>
-  </si>
-  <si>
-    <t>Livingston,L L L L D W L L W W D D</t>
-  </si>
-  <si>
-    <t>Motherwell,L D W W W D W L L L D L W</t>
-  </si>
-  <si>
-    <t>Rangers,W L W W W D W W D W D W W</t>
-  </si>
-  <si>
-    <t>Ross County,D L L D L D L L L L W L</t>
-  </si>
-  <si>
-    <t>St Johnstone,D D L D L W L W L L D W D</t>
-  </si>
-  <si>
-    <t>St Mirren,D L L D D D W W W L D L D</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 2 1 1 0 0 2 1 1 1 2 2 0,(15)</t>
-  </si>
-  <si>
-    <t>Celtic,1 6 6 0 3 0 1 2 2 2 3 0 4,(30)</t>
-  </si>
-  <si>
-    <t>Dundee,2 0 2 0 0 0 0 1 2 1 0 1 2,(11)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 1 1 0 0 1 1 1 3 2 1 0 2,(13)</t>
-  </si>
-  <si>
-    <t>Hearts,2 2 1 2 0 2 3 2 1 1 1 1 5,(23)</t>
-  </si>
-  <si>
-    <t>Hibernian,3 3 2 2 0 2 1 1 0 0 1,(15)</t>
-  </si>
-  <si>
-    <t>Livingston,0 1 1 0 0 1 0 0 3 3 1 0,(10)</t>
-  </si>
-  <si>
-    <t>Motherwell,2 1 2 1 2 1 2 0 0 1 2 1 2,(17)</t>
-  </si>
-  <si>
-    <t>Rangers,3 0 4 1 2 1 1 2 1 2 2 6 4,(29)</t>
-  </si>
-  <si>
-    <t>Ross County,0 0 2 1 0 2 1 0 2 2 5 2,(17)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 0 0 1 1 0 3 0 0 1 1 0,(8)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 1 0 0 0 2 3 1 3 1 2 0 0,(15)</t>
-  </si>
-  <si>
-    <t>Aberdeen,0 1 1 1 2 1 3 2 2 0 2 1 2,(18)</t>
-  </si>
-  <si>
-    <t>Celtic,2 0 0 1 0 1 1 1 0 0 1 0 2,(9)</t>
-  </si>
-  <si>
-    <t>Dundee,2 6 2 1 0 1 1 3 1 1 5 0 4,(27)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 0 0 2 0 0 1 0 0 1 1 1 5,(13)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 1 0 0 2 0 0 1 1 1 2 2,(12)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 2 0 0 2 0 2 3 1 3,(15)</t>
-  </si>
-  <si>
-    <t>Livingston,3 2 2 2 0 0 3 1 0 2 1 0,(16)</t>
-  </si>
-  <si>
-    <t>Motherwell,3 1 1 0 0 1 1 2 2 2 2 6 0,(21)</t>
-  </si>
-  <si>
-    <t>Rangers,0 1 2 0 1 1 0 1 1 1 2 1 2,(13)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 4 1 3 2 2 1 3 3 0 4,(26)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 1 0 2 0 1 1 3 2 1 0 0,(12)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 2 6 0 0 2 2 0 2 2 2 1 0,(21)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 3 2 2 2 1 5 3 3 1 4 3 2,(33)</t>
-  </si>
-  <si>
-    <t>Celtic,3 6 6 1 3 1 2 3 2 2 4 0 6,(39)</t>
-  </si>
-  <si>
-    <t>Dundee,4 6 4 1 0 1 1 4 3 2 5 1 6,(38)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 1 1 2 0 1 2 1 3 3 2 1 7,(26)</t>
-  </si>
-  <si>
-    <t>Hearts,3 3 2 2 0 4 3 2 2 2 2 3 7,(35)</t>
-  </si>
-  <si>
-    <t>Hibernian,5 3 4 2 0 4 1 3 3 1 4,(30)</t>
-  </si>
-  <si>
-    <t>Livingston,3 3 3 2 0 1 3 1 3 5 2 0,(26)</t>
-  </si>
-  <si>
-    <t>Motherwell,5 2 3 1 2 2 3 2 2 3 4 7 2,(38)</t>
-  </si>
-  <si>
-    <t>Rangers,3 1 6 1 3 2 1 3 2 3 4 7 6,(42)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 6 2 3 4 3 1 5 5 5 6,(43)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 2 1 0 3 1 1 4 3 2 2 1 0,(20)</t>
-  </si>
-  <si>
-    <t>St Mirren,4 3 6 0 0 4 5 1 5 3 4 1 0,(36)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2-0 1-2 1-1 1-1 2-0 0-1 3-2 1-2 2-1 1-0 2-2 2-1 0-2</t>
-  </si>
-  <si>
-    <t>Celtic,2-1 6-0 6-0 1-0 3-0 1-0 1-1 1-2 0-2 2-0 1-3 0-0 2-4</t>
-  </si>
-  <si>
-    <t>Dundee,2-2 6-0 2-2 1-0 0-0 1-0 0-1 3-1 2-1 1-1 0-5 0-1 2-4</t>
-  </si>
-  <si>
-    <t>Dundee United,2-0 1-0 0-1 0-2 0-0 1-0 1-1 1-0 0-3 2-1 1-1 0-1 5-2</t>
-  </si>
-  <si>
-    <t>Hearts,2-1 1-2 1-1 0-2 0-0 2-2 3-0 2-0 1-1 1-1 1-1 2-1 5-2</t>
-  </si>
-  <si>
-    <t>Hibernian,2-3 3-0 2-2 2-0 0-0 2-2 1-0 2-1 0-3 1-0 1-3</t>
-  </si>
-  <si>
-    <t>Livingston,3-0 1-2 1-2 2-0 0-0 1-0 3-0 0-1 0-3 2-3 1-1 0-0</t>
-  </si>
-  <si>
-    <t>Motherwell,2-3 1-1 1-2 1-0 2-0 1-1 2-1 2-0 0-2 2-1 2-2 1-6 0-2</t>
-  </si>
-  <si>
-    <t>Rangers,3-0 1-0 2-4 1-0 1-2 1-1 0-1 2-1 1-1 1-2 2-2 1-6 4-2</t>
-  </si>
-  <si>
-    <t>Ross County,0-0 3-0 2-4 1-1 3-0 2-2 2-1 1-0 2-3 2-3 0-5 4-2</t>
-  </si>
-  <si>
-    <t>St Johnstone,0-0 1-1 0-1 0-0 1-2 0-1 1-0 3-1 0-3 2-0 1-1 0-1 0-0</t>
-  </si>
-  <si>
-    <t>St Mirren,2-2 1-2 6-0 0-0 0-0 2-2 3-2 0-1 2-3 1-2 2-2 0-1 0-0</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 1 0 0 -2 -1 -1 -1 -1 1 0 1 -2,(-3)</t>
-  </si>
-  <si>
-    <t>Celtic,-1 6 6 -1 3 -1 0 1 2 2 2 0 2,(21)</t>
-  </si>
-  <si>
-    <t>Dundee,0 -6 0 -1 0 -1 -1 -2 1 0 -5 1 -2,(-16)</t>
-  </si>
-  <si>
-    <t>Dundee United,-2 1 1 -2 0 1 0 1 3 1 0 -1 -3,(0)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 0 2 0 0 3 2 0 0 0 -1 3,(11)</t>
-  </si>
-  <si>
-    <t>Hibernian,1 3 0 2 0 0 1 -1 -3 -1 -2,(0)</t>
-  </si>
-  <si>
-    <t>Livingston,-3 -1 -1 -2 0 1 -3 -1 3 1 0 0,(-6)</t>
-  </si>
-  <si>
-    <t>Motherwell,-1 0 1 1 2 0 1 -2 -2 -1 0 -5 2,(-4)</t>
-  </si>
-  <si>
-    <t>Rangers,3 -1 2 1 1 0 1 1 0 1 0 5 2,(16)</t>
-  </si>
-  <si>
-    <t>Ross County,0 -3 -2 0 -3 0 -1 -1 -1 -1 5 -2,(-9)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 0 -1 0 -1 1 -1 2 -3 -2 0 1 0,(-4)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 -1 -6 0 0 0 1 1 1 -1 0 -1 0,(-6)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Dundee United(4) Livingston(10) Hearts(3) Ross County(12) Motherwell(5) St Johnstone(9) St Mirren(8) Celtic(2) Dundee(11) Hibernian(7) Rangers(1) Hearts(3) Motherwell(5)</t>
-  </si>
-  <si>
-    <t>Celtic,Hearts(3) Dundee(11) St Mirren(8) Rangers(1) Ross County(12) Livingston(10) Dundee United(4) Aberdeen(6) Motherwell(5) St Johnstone(9) Hibernian(7) Livingston(10) Dundee(11)</t>
-  </si>
-  <si>
-    <t>Dundee,St Mirren(8) Celtic(2) Hibernian(7) Motherwell(5) Livingston(10) Dundee United(4) Rangers(1) St Johnstone(9) Aberdeen(6) Hearts(3) Ross County(12) St Mirren(8) Celtic(2)</t>
-  </si>
-  <si>
-    <t>Dundee United,Aberdeen(6) Rangers(1) St Johnstone(9) Hearts(3) St Mirren(8) Dundee(11) Celtic(2) Ross County(12) Hibernian(7) Motherwell(5) Livingston(10) St Johnstone(9) Hearts(3)</t>
-  </si>
-  <si>
-    <t>Hearts,Celtic(2) St Mirren(8) Aberdeen(6) Dundee United(4) Hibernian(7) Ross County(12) Livingston(10) Motherwell(5) Rangers(1) Dundee(11) St Johnstone(9) Aberdeen(6) Dundee United(4)</t>
-  </si>
-  <si>
-    <t>Hibernian,Motherwell(5) Ross County(12) Dundee(11) Livingston(10) Hearts(3) St Mirren(8) St Johnstone(9) Rangers(1) Dundee United(4) Aberdeen(6) Celtic(2)</t>
-  </si>
-  <si>
-    <t>Livingston,Rangers(1) Aberdeen(6) Motherwell(5) Hibernian(7) Dundee(11) Celtic(2) Hearts(3) St Mirren(8) St Johnstone(9) Ross County(12) Dundee United(4) Celtic(2)</t>
-  </si>
-  <si>
-    <t>Motherwell,Hibernian(7) St Johnstone(9) Livingston(10) Dundee(11) Aberdeen(6) Rangers(1) Ross County(12) Hearts(3) Celtic(2) Dundee United(4) St Mirren(8) Rangers(1) Aberdeen(6)</t>
-  </si>
-  <si>
-    <t>Rangers,Livingston(10) Dundee United(4) Ross County(12) Celtic(2) St Johnstone(9) Motherwell(5) Dundee(11) Hibernian(7) Hearts(3) St Mirren(8) Aberdeen(6) Motherwell(5) Ross County(12)</t>
-  </si>
-  <si>
-    <t>Ross County,St Johnstone(9) Hibernian(7) Rangers(1) Aberdeen(6) Celtic(2) Hearts(3) Motherwell(5) Dundee United(4) St Mirren(8) Livingston(10) Dundee(11) Rangers(1)</t>
-  </si>
-  <si>
-    <t>St Johnstone,Ross County(12) Motherwell(5) Dundee United(4) St Mirren(8) Rangers(1) Aberdeen(6) Hibernian(7) Dundee(11) Livingston(10) Celtic(2) Hearts(3) Dundee United(4) St Mirren(8)</t>
-  </si>
-  <si>
-    <t>St Mirren,Dundee(11) Hearts(3) Celtic(2) St Johnstone(9) Dundee United(4) Hibernian(7) Aberdeen(6) Livingston(10) Ross County(12) Rangers(1) Motherwell(5) Dundee(11) St Johnstone(9)</t>
+    <t>Aberdeen,L L W D W L</t>
+  </si>
+  <si>
+    <t>Celtic,W W W W D W</t>
+  </si>
+  <si>
+    <t>Dundee,L W D L W L</t>
+  </si>
+  <si>
+    <t>Dundee United,W W W D L L</t>
+  </si>
+  <si>
+    <t>Hearts,W D D D L W</t>
+  </si>
+  <si>
+    <t>Hibernian,D W L L L L</t>
+  </si>
+  <si>
+    <t>Livingston,L L W W D D</t>
+  </si>
+  <si>
+    <t>Motherwell,L L L D L W</t>
+  </si>
+  <si>
+    <t>Rangers,W D W D W W</t>
+  </si>
+  <si>
+    <t>Ross County,L L L L W L</t>
+  </si>
+  <si>
+    <t>St Johnstone,W L L D W D</t>
+  </si>
+  <si>
+    <t>St Mirren,W W L D L D</t>
+  </si>
+  <si>
+    <t>Aberdeen,1 1 1 2 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Celtic,2 2 2 3 0 4,(13)</t>
+  </si>
+  <si>
+    <t>Dundee,1 2 1 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 3 2 1 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Hearts,2 1 1 1 1 5,(11)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 1 1 0 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Livingston,0 0 3 3 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Motherwell,0 0 1 2 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Rangers,2 1 2 2 6 4,(17)</t>
+  </si>
+  <si>
+    <t>Ross County,1 0 2 2 5 2,(12)</t>
+  </si>
+  <si>
+    <t>St Johnstone,3 0 0 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>St Mirren,1 3 1 2 0 0,(7)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 2 0 2 1 2,(9)</t>
+  </si>
+  <si>
+    <t>Celtic,1 0 0 1 0 2,(4)</t>
+  </si>
+  <si>
+    <t>Dundee,3 1 1 5 0 4,(14)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 0 1 1 1 5,(8)</t>
+  </si>
+  <si>
+    <t>Hearts,0 1 1 1 2 2,(7)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 2 3 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Livingston,3 1 0 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 2 2 2 6 0,(14)</t>
+  </si>
+  <si>
+    <t>Rangers,1 1 1 2 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Ross County,2 1 3 3 0 4,(13)</t>
+  </si>
+  <si>
+    <t>St Johnstone,1 3 2 1 0 0,(7)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 2 2 2 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Aberdeen,3 3 1 4 3 2,(16)</t>
+  </si>
+  <si>
+    <t>Celtic,3 2 2 4 0 6,(17)</t>
+  </si>
+  <si>
+    <t>Dundee,4 3 2 5 1 6,(21)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 3 3 2 1 7,(17)</t>
+  </si>
+  <si>
+    <t>Hearts,2 2 2 2 3 7,(18)</t>
+  </si>
+  <si>
+    <t>Hibernian,4 1 3 3 1 4,(16)</t>
+  </si>
+  <si>
+    <t>Livingston,3 1 3 5 2 0,(14)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 2 3 4 7 2,(20)</t>
+  </si>
+  <si>
+    <t>Rangers,3 2 3 4 7 6,(25)</t>
+  </si>
+  <si>
+    <t>Ross County,3 1 5 5 5 6,(25)</t>
+  </si>
+  <si>
+    <t>St Johnstone,4 3 2 2 1 0,(12)</t>
+  </si>
+  <si>
+    <t>St Mirren,1 5 3 4 1 0,(14)</t>
+  </si>
+  <si>
+    <t>Aberdeen,1-2 2-1 1-0 2-2 2-1 0-2</t>
+  </si>
+  <si>
+    <t>Celtic,1-2 0-2 2-0 1-3 0-0 2-4</t>
+  </si>
+  <si>
+    <t>Dundee,3-1 2-1 1-1 0-5 0-1 2-4</t>
+  </si>
+  <si>
+    <t>Dundee United,1-0 0-3 2-1 1-1 0-1 5-2</t>
+  </si>
+  <si>
+    <t>Hearts,2-0 1-1 1-1 1-1 2-1 5-2</t>
+  </si>
+  <si>
+    <t>Hibernian,2-2 1-0 2-1 0-3 1-0 1-3</t>
+  </si>
+  <si>
+    <t>Livingston,3-0 0-1 0-3 2-3 1-1 0-0</t>
+  </si>
+  <si>
+    <t>Motherwell,2-0 0-2 2-1 2-2 1-6 0-2</t>
+  </si>
+  <si>
+    <t>Rangers,2-1 1-1 1-2 2-2 1-6 4-2</t>
+  </si>
+  <si>
+    <t>Ross County,2-1 1-0 2-3 2-3 0-5 4-2</t>
+  </si>
+  <si>
+    <t>St Johnstone,3-1 0-3 2-0 1-1 0-1 0-0</t>
+  </si>
+  <si>
+    <t>St Mirren,0-1 2-3 1-2 2-2 0-1 0-0</t>
+  </si>
+  <si>
+    <t>Aberdeen,-1 -1 1 0 1 -2,(-2)</t>
+  </si>
+  <si>
+    <t>Celtic,1 2 2 2 0 2,(9)</t>
+  </si>
+  <si>
+    <t>Dundee,-2 1 0 -5 1 -2,(-7)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 3 1 0 -1 -3,(1)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 0 0 -1 3,(4)</t>
+  </si>
+  <si>
+    <t>Hibernian,0 1 -1 -3 -1 -2,(-6)</t>
+  </si>
+  <si>
+    <t>Livingston,-3 -1 3 1 0 0,(0)</t>
+  </si>
+  <si>
+    <t>Motherwell,-2 -2 -1 0 -5 2,(-8)</t>
+  </si>
+  <si>
+    <t>Rangers,1 0 1 0 5 2,(9)</t>
+  </si>
+  <si>
+    <t>Ross County,-1 -1 -1 -1 5 -2,(-1)</t>
+  </si>
+  <si>
+    <t>St Johnstone,2 -3 -2 0 1 0,(-2)</t>
+  </si>
+  <si>
+    <t>St Mirren,1 1 -1 0 -1 0,(0)</t>
+  </si>
+  <si>
+    <t>Aberdeen,Celtic(2) Dundee(11) Hibernian(7) Rangers(1) Hearts(3) Motherwell(5)</t>
+  </si>
+  <si>
+    <t>Celtic,Aberdeen(6) Motherwell(5) St Johnstone(9) Hibernian(7) Livingston(10) Dundee(11)</t>
+  </si>
+  <si>
+    <t>Dundee,St Johnstone(9) Aberdeen(6) Hearts(3) Ross County(12) St Mirren(8) Celtic(2)</t>
+  </si>
+  <si>
+    <t>Dundee United,Ross County(12) Hibernian(7) Motherwell(5) Livingston(10) St Johnstone(9) Hearts(3)</t>
+  </si>
+  <si>
+    <t>Hearts,Motherwell(5) Rangers(1) Dundee(11) St Johnstone(9) Aberdeen(6) Dundee United(4)</t>
+  </si>
+  <si>
+    <t>Hibernian,St Mirren(8) St Johnstone(9) Rangers(1) Dundee United(4) Aberdeen(6) Celtic(2)</t>
+  </si>
+  <si>
+    <t>Livingston,Hearts(3) St Mirren(8) St Johnstone(9) Ross County(12) Dundee United(4) Celtic(2)</t>
+  </si>
+  <si>
+    <t>Motherwell,Hearts(3) Celtic(2) Dundee United(4) St Mirren(8) Rangers(1) Aberdeen(6)</t>
+  </si>
+  <si>
+    <t>Rangers,Hibernian(7) Hearts(3) St Mirren(8) Aberdeen(6) Motherwell(5) Ross County(12)</t>
+  </si>
+  <si>
+    <t>Ross County,Motherwell(5) Dundee United(4) St Mirren(8) Livingston(10) Dundee(11) Rangers(1)</t>
+  </si>
+  <si>
+    <t>St Johnstone,Dundee(11) Livingston(10) Celtic(2) Hearts(3) Dundee United(4) St Mirren(8)</t>
+  </si>
+  <si>
+    <t>St Mirren,Livingston(10) Ross County(12) Rangers(1) Motherwell(5) Dundee(11) St Johnstone(9)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -852,256 +852,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aberdeen,W W D D L L L L L W D W L L L W W W</t>
-  </si>
-  <si>
-    <t>Celtic,L W W L W L D W W W W D W W W W W W</t>
-  </si>
-  <si>
-    <t>Dundee,L D L D L L L W D L W L W W L L L L</t>
-  </si>
-  <si>
-    <t>Dundee United,W W L D W D W W W D L L W D L L L L</t>
-  </si>
-  <si>
-    <t>Hearts,W D W D D W W D D D L W L W L W L W</t>
-  </si>
-  <si>
-    <t>Hibernian,W W D W D D W L L L L L W L D L D W</t>
-  </si>
-  <si>
-    <t>Livingston,L L L D W L L W W D D D L L L W W D</t>
-  </si>
-  <si>
-    <t>Motherwell,D W W W D W L L L D L W W L W D L W</t>
-  </si>
-  <si>
-    <t>Rangers,L W W W D W W D W D W W W W W W W W</t>
-  </si>
-  <si>
-    <t>Ross County,D L L D L D L L L L W L W D D W L D</t>
-  </si>
-  <si>
-    <t>St Johnstone,D D L D L W L W L L D W D L L L L L</t>
-  </si>
-  <si>
-    <t>St Mirren,D L L D D D W W W L D L D D L D L D</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 2 1 1 0 0 2 1 1 1 2 2 0 0 1 2 4 1,(23)</t>
-  </si>
-  <si>
-    <t>Celtic,1 6 6 0 3 0 1 2 2 2 3 0 4 2 1 3 1 2,(39)</t>
-  </si>
-  <si>
-    <t>Dundee,0 2 0 0 0 0 1 2 1 0 1 2 3 1 0 2 0 0,(15)</t>
-  </si>
-  <si>
-    <t>Dundee United,1 1 0 0 1 1 1 3 2 1 0 2 1 1 0 0 0 0,(15)</t>
-  </si>
-  <si>
-    <t>Hearts,2 1 2 0 2 3 2 1 1 1 1 5 0 2 0 1 0 1,(25)</t>
-  </si>
-  <si>
-    <t>Hibernian,3 3 2 2 0 2 1 1 0 0 1 0 2 0 1 0 1 1,(20)</t>
-  </si>
-  <si>
-    <t>Livingston,1 1 0 0 1 0 0 3 3 1 0 1 1 0 0 1 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 2 1 2 1 2 0 0 1 2 1 2 2 0 1 1 0 2,(21)</t>
-  </si>
-  <si>
-    <t>Rangers,0 4 1 2 1 1 2 1 2 2 6 4 3 1 3 2 2 1,(38)</t>
-  </si>
-  <si>
-    <t>Ross County,0 0 2 1 0 2 1 0 2 2 5 2 1 1 0 3 1 1,(24)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 0 0 1 1 0 3 0 0 1 1 0 1 0 0 0 0,(9)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 1 0 0 0 2 3 1 3 1 2 0 0 1 0 0 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Aberdeen,0 1 1 1 2 1 3 2 2 0 2 1 2 1 2 0 1 0,(22)</t>
-  </si>
-  <si>
-    <t>Celtic,2 0 0 1 0 1 1 1 0 0 1 0 2 1 0 0 0 1,(11)</t>
-  </si>
-  <si>
-    <t>Dundee,6 2 1 0 1 1 3 1 1 5 0 4 0 0 3 3 1 1,(33)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 0 2 0 0 1 0 0 1 1 1 5 0 1 1 3 1 1,(18)</t>
-  </si>
-  <si>
-    <t>Hearts,1 1 0 0 2 0 0 1 1 1 2 2 2 0 1 0 2 0,(16)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 2 0 0 2 0 2 3 1 3 1 1 1 1 1 1 0,(21)</t>
-  </si>
-  <si>
-    <t>Livingston,2 2 2 0 0 3 1 0 2 1 0 1 3 2 1 0 0 1,(21)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 1 0 0 1 1 2 2 2 2 6 0 0 3 0 1 1 0,(23)</t>
-  </si>
-  <si>
-    <t>Rangers,1 2 0 1 1 0 1 1 1 2 1 2 1 0 0 0 0 0,(14)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 4 1 3 2 2 1 3 3 0 4 0 1 0 2 2 1,(32)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 1 1 0 2 0 1 1 3 2 1 0 0 2 1 1 2 2,(20)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 2 6 0 0 2 2 0 2 2 2 1 0 1 2 0 4 1,(29)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 3 2 2 2 1 5 3 3 1 4 3 2 1 3 2 5 1,(45)</t>
-  </si>
-  <si>
-    <t>Celtic,3 6 6 1 3 1 2 3 2 2 4 0 6 3 1 3 1 3,(50)</t>
-  </si>
-  <si>
-    <t>Dundee,6 4 1 0 1 1 4 3 2 5 1 6 3 1 3 5 1 1,(48)</t>
-  </si>
-  <si>
-    <t>Dundee United,1 1 2 0 1 2 1 3 3 2 1 7 1 2 1 3 1 1,(33)</t>
-  </si>
-  <si>
-    <t>Hearts,3 2 2 0 4 3 2 2 2 2 3 7 2 2 1 1 2 1,(41)</t>
-  </si>
-  <si>
-    <t>Hibernian,5 3 4 2 0 4 1 3 3 1 4 1 3 1 2 1 2 1,(41)</t>
-  </si>
-  <si>
-    <t>Livingston,3 3 2 0 1 3 1 3 5 2 0 2 4 2 1 1 1 2,(36)</t>
-  </si>
-  <si>
-    <t>Motherwell,2 3 1 2 2 3 2 2 3 4 7 2 2 3 1 2 1 2,(44)</t>
-  </si>
-  <si>
-    <t>Rangers,1 6 1 3 2 1 3 2 3 4 7 6 4 1 3 2 2 1,(52)</t>
-  </si>
-  <si>
-    <t>Ross County,0 3 6 2 3 4 3 1 5 5 5 6 1 2 0 5 3 2,(56)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 2 1 0 3 1 1 4 3 2 2 1 0 3 1 1 2 2,(29)</t>
-  </si>
-  <si>
-    <t>St Mirren,4 3 6 0 0 4 5 1 5 3 4 1 0 2 2 0 5 2,(47)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2-0 1-2 1-1 1-1 2-0 0-1 3-2 1-2 2-1 1-0 2-2 2-1 0-2 1-0 2-1 2-0 4-1 0-1</t>
-  </si>
-  <si>
-    <t>Celtic,2-1 6-0 6-0 1-0 3-0 1-0 1-1 1-2 0-2 2-0 1-3 0-0 2-4 2-1 1-0 0-3 1-0 1-2</t>
-  </si>
-  <si>
-    <t>Dundee,6-0 2-2 1-0 0-0 1-0 0-1 3-1 2-1 1-1 0-5 0-1 2-4 3-0 1-0 3-0 3-2 1-0 0-1</t>
-  </si>
-  <si>
-    <t>Dundee United,1-0 0-1 0-2 0-0 1-0 1-1 1-0 0-3 2-1 1-1 0-1 5-2 1-0 1-1 1-0 0-3 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Hearts,1-2 1-1 0-2 0-0 2-2 3-0 2-0 1-1 1-1 1-1 2-1 5-2 2-0 2-0 1-0 0-1 0-2 0-1</t>
-  </si>
-  <si>
-    <t>Hibernian,2-3 3-0 2-2 2-0 0-0 2-2 1-0 2-1 0-3 1-0 1-3 1-0 1-2 0-1 1-1 1-0 1-1 1-0</t>
-  </si>
-  <si>
-    <t>Livingston,1-2 1-2 2-0 0-0 1-0 3-0 0-1 0-3 2-3 1-1 0-0 1-1 1-3 2-0 0-1 1-0 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Motherwell,1-1 1-2 1-0 2-0 1-1 2-1 2-0 0-2 2-1 2-2 1-6 0-2 2-0 3-0 1-0 1-1 1-0 2-0</t>
-  </si>
-  <si>
-    <t>Rangers,1-0 2-4 1-0 1-2 1-1 0-1 2-1 1-1 1-2 2-2 1-6 4-2 1-3 0-1 3-0 0-2 2-0 1-0</t>
-  </si>
-  <si>
-    <t>Ross County,0-0 3-0 2-4 1-1 3-0 2-2 2-1 1-0 2-3 2-3 0-5 4-2 1-0 1-1 0-0 3-2 1-2 1-1</t>
-  </si>
-  <si>
-    <t>St Johnstone,0-0 1-1 0-1 0-0 1-2 0-1 1-0 3-1 0-3 2-0 1-1 0-1 0-0 1-2 1-0 0-1 2-0 2-0</t>
-  </si>
-  <si>
-    <t>St Mirren,2-2 1-2 6-0 0-0 0-0 2-2 3-2 0-1 2-3 1-2 2-2 0-1 0-0 1-1 2-0 0-0 4-1 1-1</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 1 0 0 -2 -1 -1 -1 -1 1 0 1 -2 -1 -1 2 3 1,(1)</t>
-  </si>
-  <si>
-    <t>Celtic,-1 6 6 -1 3 -1 0 1 2 2 2 0 2 1 1 3 1 1,(28)</t>
-  </si>
-  <si>
-    <t>Dundee,-6 0 -1 0 -1 -1 -2 1 0 -5 1 -2 3 1 -3 -1 -1 -1,(-18)</t>
-  </si>
-  <si>
-    <t>Dundee United,1 1 -2 0 1 0 1 3 1 0 -1 -3 1 0 -1 -3 -1 -1,(-3)</t>
-  </si>
-  <si>
-    <t>Hearts,1 0 2 0 0 3 2 0 0 0 -1 3 -2 2 -1 1 -2 1,(9)</t>
-  </si>
-  <si>
-    <t>Hibernian,1 3 0 2 0 0 1 -1 -3 -1 -2 -1 1 -1 0 -1 0 1,(-1)</t>
-  </si>
-  <si>
-    <t>Livingston,-1 -1 -2 0 1 -3 -1 3 1 0 0 0 -2 -2 -1 1 1 0,(-6)</t>
-  </si>
-  <si>
-    <t>Motherwell,0 1 1 2 0 1 -2 -2 -1 0 -5 2 2 -3 1 0 -1 2,(-2)</t>
-  </si>
-  <si>
-    <t>Rangers,-1 2 1 1 0 1 1 0 1 0 5 2 2 1 3 2 2 1,(24)</t>
-  </si>
-  <si>
-    <t>Ross County,0 -3 -2 0 -3 0 -1 -1 -1 -1 5 -2 1 0 0 1 -1 0,(-8)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 0 -1 0 -1 1 -1 2 -3 -2 0 1 0 -1 -1 -1 -2 -2,(-11)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 -1 -6 0 0 0 1 1 1 -1 0 -1 0 0 -2 0 -3 0,(-11)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Dundee United(5) Livingston(8) Hearts(3) Ross County(11) Motherwell(4) St Johnstone(12) St Mirren(9) Celtic(2) Dundee(10) Hibernian(7) Rangers(1) Hearts(3) Motherwell(4) Dundee United(5) Celtic(2) Livingston(8) St Mirren(9) St Johnstone(12)</t>
-  </si>
-  <si>
-    <t>Celtic,Hearts(3) Dundee(10) St Mirren(9) Rangers(1) Ross County(11) Livingston(8) Dundee United(5) Aberdeen(6) Motherwell(4) St Johnstone(12) Hibernian(7) Livingston(8) Dundee(10) Aberdeen(6) Hearts(3) Dundee United(5) Motherwell(4) Ross County(11)</t>
-  </si>
-  <si>
-    <t>Dundee,Celtic(2) Hibernian(7) Motherwell(4) Livingston(8) Dundee United(5) Rangers(1) St Johnstone(12) Aberdeen(6) Hearts(3) Ross County(11) St Mirren(9) Celtic(2) Motherwell(4) St Johnstone(12) Rangers(1) Ross County(11) Hibernian(7) Hearts(3)</t>
-  </si>
-  <si>
-    <t>Dundee United,Rangers(1) St Johnstone(12) Hearts(3) St Mirren(9) Dundee(10) Celtic(2) Ross County(11) Hibernian(7) Motherwell(4) Livingston(8) St Johnstone(12) Hearts(3) Aberdeen(6) Ross County(11) Motherwell(4) Celtic(2) Livingston(8) Rangers(1)</t>
-  </si>
-  <si>
-    <t>Hearts,St Mirren(9) Aberdeen(6) Dundee United(5) Hibernian(7) Ross County(11) Livingston(8) Motherwell(4) Rangers(1) Dundee(10) St Johnstone(12) Aberdeen(6) Dundee United(5) Motherwell(4) St Mirren(9) Celtic(2) Livingston(8) Rangers(1) Dundee(10)</t>
-  </si>
-  <si>
-    <t>Hibernian,Motherwell(4) Ross County(11) Dundee(10) Livingston(8) Hearts(3) St Mirren(9) St Johnstone(12) Rangers(1) Dundee United(5) Aberdeen(6) Celtic(2) Ross County(11) St Johnstone(12) Rangers(1) Motherwell(4) Livingston(8) St Mirren(9) Dundee(10)</t>
-  </si>
-  <si>
-    <t>Livingston,Aberdeen(6) Motherwell(4) Hibernian(7) Dundee(10) Celtic(2) Hearts(3) St Mirren(9) St Johnstone(12) Ross County(11) Dundee United(5) Celtic(2) St Mirren(9) Rangers(1) Aberdeen(6) Hearts(3) Hibernian(7) Dundee United(5) Ross County(11)</t>
-  </si>
-  <si>
-    <t>Motherwell,St Johnstone(12) Livingston(8) Dundee(10) Aberdeen(6) Rangers(1) Ross County(11) Hearts(3) Celtic(2) Dundee United(5) St Mirren(9) Rangers(1) Aberdeen(6) Hearts(3) Dundee(10) Dundee United(5) Hibernian(7) Celtic(2) St Johnstone(12)</t>
-  </si>
-  <si>
-    <t>Rangers,Dundee United(5) Ross County(11) Celtic(2) St Johnstone(12) Motherwell(4) Dundee(10) Hibernian(7) Hearts(3) St Mirren(9) Aberdeen(6) Motherwell(4) Ross County(11) Livingston(8) Hibernian(7) Dundee(10) Hearts(3) St Johnstone(12) Dundee United(5)</t>
-  </si>
-  <si>
-    <t>Ross County,St Johnstone(12) Hibernian(7) Rangers(1) Aberdeen(6) Celtic(2) Hearts(3) Motherwell(4) Dundee United(5) St Mirren(9) Livingston(8) Dundee(10) Rangers(1) Hibernian(7) Dundee United(5) St Mirren(9) Dundee(10) Celtic(2) Livingston(8)</t>
-  </si>
-  <si>
-    <t>St Johnstone,Ross County(11) Motherwell(4) Dundee United(5) St Mirren(9) Rangers(1) Aberdeen(6) Hibernian(7) Dundee(10) Livingston(8) Celtic(2) Hearts(3) Dundee United(5) St Mirren(9) Hibernian(7) Dundee(10) Aberdeen(6) Rangers(1) Motherwell(4)</t>
-  </si>
-  <si>
-    <t>St Mirren,Dundee(10) Hearts(3) Celtic(2) St Johnstone(12) Dundee United(5) Hibernian(7) Aberdeen(6) Livingston(8) Ross County(11) Rangers(1) Motherwell(4) Dundee(10) St Johnstone(12) Livingston(8) Hearts(3) Ross County(11) Aberdeen(6) Hibernian(7)</t>
+    <t>Aberdeen,L L L W W W</t>
+  </si>
+  <si>
+    <t>Celtic,W W W W W W</t>
+  </si>
+  <si>
+    <t>Dundee,W W L L L L</t>
+  </si>
+  <si>
+    <t>Dundee United,W D L L L L</t>
+  </si>
+  <si>
+    <t>Hearts,L W L W L W</t>
+  </si>
+  <si>
+    <t>Hibernian,W L D L D W</t>
+  </si>
+  <si>
+    <t>Livingston,L L L W W D</t>
+  </si>
+  <si>
+    <t>Motherwell,W L W D L W</t>
+  </si>
+  <si>
+    <t>Rangers,W W W W W W</t>
+  </si>
+  <si>
+    <t>Ross County,W D D W L D</t>
+  </si>
+  <si>
+    <t>St Johnstone,D L L L L L</t>
+  </si>
+  <si>
+    <t>St Mirren,D D L D L D</t>
+  </si>
+  <si>
+    <t>Aberdeen,0 0 1 2 4 1,(8)</t>
+  </si>
+  <si>
+    <t>Celtic,4 2 1 3 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Dundee,3 1 0 2 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 1 0 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Hearts,0 2 0 1 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 1 0 1 1,(5)</t>
+  </si>
+  <si>
+    <t>Livingston,1 0 0 1 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 0 1 1 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Rangers,3 1 3 2 2 1,(12)</t>
+  </si>
+  <si>
+    <t>Ross County,1 1 0 3 1 1,(7)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 0 0 0 0,(1)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 1 0 0 1 1,(3)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 1 2 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Celtic,2 1 0 0 0 1,(4)</t>
+  </si>
+  <si>
+    <t>Dundee,0 0 3 3 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 1 1 3 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Hearts,2 0 1 0 2 0,(5)</t>
+  </si>
+  <si>
+    <t>Hibernian,1 1 1 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Livingston,3 2 1 0 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Motherwell,0 3 0 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Rangers,1 0 0 0 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Ross County,0 1 0 2 2 1,(6)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 2 1 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 1 2 0 4 1,(8)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 1 3 2 5 1,(14)</t>
+  </si>
+  <si>
+    <t>Celtic,6 3 1 3 1 3,(17)</t>
+  </si>
+  <si>
+    <t>Dundee,3 1 3 5 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 2 1 3 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Hearts,2 2 1 1 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Hibernian,3 1 2 1 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Livingston,4 2 1 1 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 3 1 2 1 2,(11)</t>
+  </si>
+  <si>
+    <t>Rangers,4 1 3 2 2 1,(13)</t>
+  </si>
+  <si>
+    <t>Ross County,1 2 0 5 3 2,(13)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 3 1 1 2 2,(9)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 2 2 0 5 2,(11)</t>
+  </si>
+  <si>
+    <t>Aberdeen,0-2 1-0 2-1 2-0 4-1 0-1</t>
+  </si>
+  <si>
+    <t>Celtic,2-4 2-1 1-0 0-3 1-0 1-2</t>
+  </si>
+  <si>
+    <t>Dundee,3-0 1-0 3-0 3-2 1-0 0-1</t>
+  </si>
+  <si>
+    <t>Dundee United,1-0 1-1 1-0 0-3 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Hearts,2-0 2-0 1-0 0-1 0-2 0-1</t>
+  </si>
+  <si>
+    <t>Hibernian,1-2 0-1 1-1 1-0 1-1 1-0</t>
+  </si>
+  <si>
+    <t>Livingston,1-3 2-0 0-1 1-0 0-1 1-1</t>
+  </si>
+  <si>
+    <t>Motherwell,2-0 3-0 1-0 1-1 1-0 2-0</t>
+  </si>
+  <si>
+    <t>Rangers,1-3 0-1 3-0 0-2 2-0 1-0</t>
+  </si>
+  <si>
+    <t>Ross County,1-0 1-1 0-0 3-2 1-2 1-1</t>
+  </si>
+  <si>
+    <t>St Johnstone,0-0 1-2 1-0 0-1 2-0 2-0</t>
+  </si>
+  <si>
+    <t>St Mirren,0-0 1-1 2-0 0-0 4-1 1-1</t>
+  </si>
+  <si>
+    <t>Aberdeen,-2 -1 -1 2 3 1,(2)</t>
+  </si>
+  <si>
+    <t>Celtic,2 1 1 3 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Dundee,3 1 -3 -1 -1 -1,(-2)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 0 -1 -3 -1 -1,(-5)</t>
+  </si>
+  <si>
+    <t>Hearts,-2 2 -1 1 -2 1,(-1)</t>
+  </si>
+  <si>
+    <t>Hibernian,1 -1 0 -1 0 1,(0)</t>
+  </si>
+  <si>
+    <t>Livingston,-2 -2 -1 1 1 0,(-3)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 -3 1 0 -1 2,(1)</t>
+  </si>
+  <si>
+    <t>Rangers,2 1 3 2 2 1,(11)</t>
+  </si>
+  <si>
+    <t>Ross County,1 0 0 1 -1 0,(1)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 -1 -1 -1 -2 -2,(-7)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 0 -2 0 -3 0,(-5)</t>
+  </si>
+  <si>
+    <t>Aberdeen,Motherwell(4) Dundee United(5) Celtic(2) Livingston(8) St Mirren(9) St Johnstone(12)</t>
+  </si>
+  <si>
+    <t>Celtic,Dundee(10) Aberdeen(6) Hearts(3) Dundee United(5) Motherwell(4) Ross County(11)</t>
+  </si>
+  <si>
+    <t>Dundee,Motherwell(4) St Johnstone(12) Rangers(1) Ross County(11) Hibernian(7) Hearts(3)</t>
+  </si>
+  <si>
+    <t>Dundee United,Aberdeen(6) Ross County(11) Motherwell(4) Celtic(2) Livingston(8) Rangers(1)</t>
+  </si>
+  <si>
+    <t>Hearts,Motherwell(4) St Mirren(9) Celtic(2) Livingston(8) Rangers(1) Dundee(10)</t>
+  </si>
+  <si>
+    <t>Hibernian,St Johnstone(12) Rangers(1) Motherwell(4) Livingston(8) St Mirren(9) Dundee(10)</t>
+  </si>
+  <si>
+    <t>Livingston,Rangers(1) Aberdeen(6) Hearts(3) Hibernian(7) Dundee United(5) Ross County(11)</t>
+  </si>
+  <si>
+    <t>Motherwell,Hearts(3) Dundee(10) Dundee United(5) Hibernian(7) Celtic(2) St Johnstone(12)</t>
+  </si>
+  <si>
+    <t>Rangers,Livingston(8) Hibernian(7) Dundee(10) Hearts(3) St Johnstone(12) Dundee United(5)</t>
+  </si>
+  <si>
+    <t>Ross County,Hibernian(7) Dundee United(5) St Mirren(9) Dundee(10) Celtic(2) Livingston(8)</t>
+  </si>
+  <si>
+    <t>St Johnstone,St Mirren(9) Hibernian(7) Dundee(10) Aberdeen(6) Rangers(1) Motherwell(4)</t>
+  </si>
+  <si>
+    <t>St Mirren,St Johnstone(12) Livingston(8) Hearts(3) Ross County(11) Aberdeen(6) Hibernian(7)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -950,256 +950,256 @@
     <t>Team against</t>
   </si>
   <si>
-    <t>Aberdeen,L D D D L L</t>
-  </si>
-  <si>
-    <t>Celtic,W W W D W W</t>
-  </si>
-  <si>
-    <t>Dundee,W L L D D L</t>
-  </si>
-  <si>
-    <t>Dundee United,D W D D L D</t>
-  </si>
-  <si>
-    <t>Hearts,L L L W W D</t>
-  </si>
-  <si>
-    <t>Hibernian,L L W D D D</t>
-  </si>
-  <si>
-    <t>Livingston,W D D W W L</t>
-  </si>
-  <si>
-    <t>Motherwell,L L D D L D</t>
-  </si>
-  <si>
-    <t>Rangers,W W D D W W</t>
-  </si>
-  <si>
-    <t>Ross County,W D L W W W</t>
-  </si>
-  <si>
-    <t>St Johnstone,L D W L L D</t>
-  </si>
-  <si>
-    <t>St Mirren,W D L L L W</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 1 1 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Celtic,4 3 3 0 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Dundee,2 2 0 0 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 2 1 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Hearts,0 1 1 2 2 2,(8)</t>
-  </si>
-  <si>
-    <t>Hibernian,0 0 2 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Livingston,2 1 1 4 2 1,(11)</t>
-  </si>
-  <si>
-    <t>Motherwell,0 0 1 2 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Rangers,5 2 1 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Ross County,2 1 0 3 1 1,(8)</t>
-  </si>
-  <si>
-    <t>St Johnstone,1 1 2 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 1 0 0 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Aberdeen,3 1 1 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Celtic,0 2 2 0 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Dundee,1 3 4 0 1 1,(10)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 0 1 1 2 2,(6)</t>
-  </si>
-  <si>
-    <t>Hearts,5 2 2 0 0 2,(11)</t>
-  </si>
-  <si>
-    <t>Hibernian,1 2 0 0 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Livingston,1 1 1 0 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Motherwell,4 2 1 2 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Rangers,0 0 1 2 0 0,(3)</t>
-  </si>
-  <si>
-    <t>Ross County,1 1 2 1 0 0,(5)</t>
-  </si>
-  <si>
-    <t>St Johnstone,2 1 1 3 1 0,(8)</t>
-  </si>
-  <si>
-    <t>St Mirren,1 1 2 2 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Aberdeen,5 2 2 2 2 1,(14)</t>
-  </si>
-  <si>
-    <t>Celtic,4 5 5 0 2 4,(20)</t>
-  </si>
-  <si>
-    <t>Dundee,3 5 4 0 2 1,(15)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 2 2 2 3 4,(13)</t>
-  </si>
-  <si>
-    <t>Hearts,5 3 3 2 2 4,(19)</t>
-  </si>
-  <si>
-    <t>Hibernian,1 2 2 0 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Livingston,3 2 2 4 3 4,(18)</t>
-  </si>
-  <si>
-    <t>Motherwell,4 2 2 4 1 2,(15)</t>
-  </si>
-  <si>
-    <t>Rangers,5 2 2 4 1 1,(15)</t>
-  </si>
-  <si>
-    <t>Ross County,3 2 2 4 1 1,(13)</t>
-  </si>
-  <si>
-    <t>St Johnstone,3 2 3 4 1 0,(13)</t>
-  </si>
-  <si>
-    <t>St Mirren,3 2 2 2 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2-3 1-1 1-1 1-1 2-0 1-0</t>
-  </si>
-  <si>
-    <t>Celtic,0-4 2-3 3-2 0-0 2-0 1-3</t>
-  </si>
-  <si>
-    <t>Dundee,1-2 3-2 0-4 0-0 1-1 0-1</t>
-  </si>
-  <si>
-    <t>Dundee United,0-0 2-0 1-1 1-1 2-1 2-2</t>
-  </si>
-  <si>
-    <t>Hearts,5-0 1-2 2-1 0-2 2-0 2-2</t>
-  </si>
-  <si>
-    <t>Hibernian,0-1 2-0 2-0 0-0 0-0 0-0</t>
-  </si>
-  <si>
-    <t>Livingston,2-1 1-1 1-1 0-4 2-1 1-3</t>
-  </si>
-  <si>
-    <t>Motherwell,0-4 2-0 1-1 2-2 0-1 1-1</t>
-  </si>
-  <si>
-    <t>Rangers,5-0 2-0 1-1 2-2 0-1 1-0</t>
-  </si>
-  <si>
-    <t>Ross County,1-2 1-1 2-0 3-1 0-1 1-0</t>
-  </si>
-  <si>
-    <t>St Johnstone,2-1 1-1 2-1 3-1 0-1 0-0</t>
-  </si>
-  <si>
-    <t>St Mirren,2-1 1-1 0-2 2-0 1-0 0-1</t>
-  </si>
-  <si>
-    <t>Aberdeen,-1 0 0 0 -2 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Celtic,4 1 1 0 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Dundee,1 -1 -4 0 0 -1,(-5)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 2 0 0 -1 0,(1)</t>
-  </si>
-  <si>
-    <t>Hearts,-5 -1 -1 2 2 0,(-3)</t>
-  </si>
-  <si>
-    <t>Hibernian,-1 -2 2 0 0 0,(-1)</t>
-  </si>
-  <si>
-    <t>Livingston,1 0 0 4 1 -2,(4)</t>
-  </si>
-  <si>
-    <t>Motherwell,-4 -2 0 0 -1 0,(-7)</t>
-  </si>
-  <si>
-    <t>Rangers,5 2 0 0 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Ross County,1 0 -2 2 1 1,(3)</t>
-  </si>
-  <si>
-    <t>St Johnstone,-1 0 1 -2 -1 0,(-3)</t>
-  </si>
-  <si>
-    <t>St Mirren,1 0 -2 -2 -1 1,(-3)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Celtic(1) St Johnstone(11) Motherwell(7) Dundee United(6) Hearts(3) Rangers(2)</t>
-  </si>
-  <si>
-    <t>Celtic,Motherwell(7) Aberdeen(10) Dundee(12) Hibernian(4) St Mirren(9) Livingston(5)</t>
-  </si>
-  <si>
-    <t>Dundee,Hearts(3) Celtic(1) Livingston(5) Hibernian(4) Motherwell(7) St Mirren(9)</t>
-  </si>
-  <si>
-    <t>Dundee United,St Johnstone(11) Motherwell(7) Rangers(2) Aberdeen(10) Livingston(5) Hearts(3)</t>
-  </si>
-  <si>
-    <t>Hearts,Rangers(2) Dundee(12) St Johnstone(11) St Mirren(9) Aberdeen(10) Dundee United(6)</t>
-  </si>
-  <si>
-    <t>Hibernian,St Mirren(9) Rangers(2) Ross County(8) Celtic(1) Dundee(12) St Johnstone(11)</t>
-  </si>
-  <si>
-    <t>Livingston,Aberdeen(10) Ross County(8) St Mirren(9) Dundee(12) Dundee United(6) Celtic(1)</t>
-  </si>
-  <si>
-    <t>Motherwell,Celtic(1) Dundee United(6) Aberdeen(10) Rangers(2) Ross County(8) Dundee(12)</t>
-  </si>
-  <si>
-    <t>Rangers,Hearts(3) Hibernian(4) Dundee United(6) Motherwell(7) St Johnstone(11) Aberdeen(10)</t>
-  </si>
-  <si>
-    <t>Ross County,Dundee(12) Livingston(5) Hibernian(4) St Johnstone(11) Motherwell(7) St Mirren(9)</t>
-  </si>
-  <si>
-    <t>St Johnstone,St Mirren(9) Aberdeen(10) Hearts(3) Ross County(8) Rangers(2) Hibernian(4)</t>
-  </si>
-  <si>
-    <t>St Mirren,St Johnstone(11) Livingston(5) Hearts(3) Celtic(1) Ross County(8) Dundee(12)</t>
+    <t>Aberdeen,W W D D L L L L L W D W L L L W W W L W D L D L L D D D L L</t>
+  </si>
+  <si>
+    <t>Celtic,L W W L W L D W W W W D W W W W W W D W W W W W W W W D W W</t>
+  </si>
+  <si>
+    <t>Dundee,D L D L D L L L W D L W L W W L L L L L L D D L W L L D D L</t>
+  </si>
+  <si>
+    <t>Dundee United,L W W L D W D W W W D L L W D L L L L L L W L D D W D D L D</t>
+  </si>
+  <si>
+    <t>Hearts,W W D W D D W W D D D L W L W L W L W W W L W D L L L W W D</t>
+  </si>
+  <si>
+    <t>Hibernian,W W D W D D W L L L L L W L D L D W W W L D L D L L W D D D</t>
+  </si>
+  <si>
+    <t>Livingston,L L L L D W L L W W D D D L L L W W D L W L W L W D D W W L</t>
+  </si>
+  <si>
+    <t>Motherwell,L D W W W D W L L L D L W W L W D L W W L D L D L L D D L D</t>
+  </si>
+  <si>
+    <t>Rangers,W L W W W D W W D W D W W W W W W W W W D W D L W W D D W W</t>
+  </si>
+  <si>
+    <t>Ross County,D L L D L D L L L L W L W D D W L D W L W L D D W D L W W W</t>
+  </si>
+  <si>
+    <t>St Johnstone,D D L D L W L W L L D W D L L L L L L L L D W D L D W L L D</t>
+  </si>
+  <si>
+    <t>St Mirren,D L L D D D W W W L D L D D L D L D D L W W D W W D L L L W</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 2 1 1 0 0 2 1 1 1 2 2 0 0 1 2 4 1 0 2 1 0 1 1 2 1 1 1 0 0,(33)</t>
+  </si>
+  <si>
+    <t>Celtic,1 6 6 0 3 0 1 2 2 2 3 0 4 2 1 3 1 2 0 3 2 2 1 3 4 3 3 0 2 3,(65)</t>
+  </si>
+  <si>
+    <t>Dundee,2 0 2 0 0 0 0 1 2 1 0 1 2 3 1 0 2 0 0 1 0 0 0 1 2 2 0 0 1 0,(24)</t>
+  </si>
+  <si>
+    <t>Dundee United,0 1 1 0 0 1 1 1 3 2 1 0 2 1 1 0 0 0 0 1 1 2 0 0 0 2 1 1 1 2,(26)</t>
+  </si>
+  <si>
+    <t>Hearts,2 2 1 2 0 2 3 2 1 1 1 1 5 0 2 0 1 0 1 2 2 1 2 0 0 1 1 2 2 2,(42)</t>
+  </si>
+  <si>
+    <t>Hibernian,3 3 2 2 0 2 1 1 0 0 1 0 2 0 1 0 1 1 1 3 0 0 2 0 0 0 2 0 0 0,(28)</t>
+  </si>
+  <si>
+    <t>Livingston,0 1 1 0 0 1 0 0 3 3 1 0 1 1 0 0 1 1 1 1 2 0 3 1 2 1 1 4 2 1,(33)</t>
+  </si>
+  <si>
+    <t>Motherwell,2 1 2 1 2 1 2 0 0 1 2 1 2 2 0 1 1 0 2 2 1 0 0 1 0 0 1 2 0 1,(31)</t>
+  </si>
+  <si>
+    <t>Rangers,3 0 4 1 2 1 1 2 1 2 2 6 4 3 1 3 2 2 1 2 1 1 3 0 5 2 1 2 1 1,(60)</t>
+  </si>
+  <si>
+    <t>Ross County,0 0 2 1 0 2 1 0 2 2 5 2 1 1 0 3 1 1 2 1 3 1 3 1 2 1 0 3 1 1,(43)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 0 0 1 1 0 3 0 0 1 1 0 1 0 0 0 0 1 1 0 0 2 0 1 1 2 1 0 0,(18)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 1 0 0 0 2 3 1 3 1 2 0 0 1 0 0 1 1 0 0 2 1 1 1 2 1 0 0 0 1,(27)</t>
+  </si>
+  <si>
+    <t>Aberdeen,0 1 1 1 2 1 3 2 2 0 2 1 2 1 2 0 1 0 1 1 1 1 1 2 3 1 1 1 2 1,(38)</t>
+  </si>
+  <si>
+    <t>Celtic,2 0 0 1 0 1 1 1 0 0 1 0 2 1 0 0 0 1 0 1 0 1 0 0 0 2 2 0 0 1,(18)</t>
+  </si>
+  <si>
+    <t>Dundee,2 6 2 1 0 1 1 3 1 1 5 0 4 0 0 3 3 1 1 2 2 0 0 2 1 3 4 0 1 1,(51)</t>
+  </si>
+  <si>
+    <t>Dundee United,2 0 0 2 0 0 1 0 0 1 1 1 5 0 1 1 3 1 1 3 2 1 1 0 0 0 1 1 2 2,(33)</t>
+  </si>
+  <si>
+    <t>Hearts,1 1 1 0 0 2 0 0 1 1 1 2 2 2 0 1 0 2 0 1 0 2 0 0 5 2 2 0 0 2,(31)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 2 0 0 2 0 2 3 1 3 1 1 1 1 1 1 0 0 1 2 0 3 0 1 2 0 0 0 0,(30)</t>
+  </si>
+  <si>
+    <t>Livingston,3 2 2 2 0 0 3 1 0 2 1 0 1 3 2 1 0 0 1 2 0 1 2 2 1 1 1 0 1 3,(38)</t>
+  </si>
+  <si>
+    <t>Motherwell,3 1 1 0 0 1 1 2 2 2 2 6 0 0 3 0 1 1 0 1 3 0 2 1 4 2 1 2 1 1,(44)</t>
+  </si>
+  <si>
+    <t>Rangers,0 1 2 0 1 1 0 1 1 1 2 1 2 1 0 0 0 0 0 0 1 0 3 3 0 0 1 2 0 0,(24)</t>
+  </si>
+  <si>
+    <t>Ross County,0 3 4 1 3 2 2 1 3 3 0 4 0 1 0 2 2 1 1 2 1 2 3 1 1 1 2 1 0 0,(47)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 1 1 0 2 0 1 1 3 2 1 0 0 2 1 1 2 2 2 3 2 0 1 0 2 1 1 3 1 0,(36)</t>
+  </si>
+  <si>
+    <t>St Mirren,2 2 6 0 0 2 2 0 2 2 2 1 0 1 2 0 4 1 0 2 1 0 1 0 1 1 2 2 1 0,(40)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 3 2 2 2 1 5 3 3 1 4 3 2 1 3 2 5 1 1 3 2 1 2 3 5 2 2 2 2 1,(71)</t>
+  </si>
+  <si>
+    <t>Celtic,3 6 6 1 3 1 2 3 2 2 4 0 6 3 1 3 1 3 0 4 2 3 1 3 4 5 5 0 2 4,(83)</t>
+  </si>
+  <si>
+    <t>Dundee,4 6 4 1 0 1 1 4 3 2 5 1 6 3 1 3 5 1 1 3 2 0 0 3 3 5 4 0 2 1,(75)</t>
+  </si>
+  <si>
+    <t>Dundee United,2 1 1 2 0 1 2 1 3 3 2 1 7 1 2 1 3 1 1 4 3 3 1 0 0 2 2 2 3 4,(59)</t>
+  </si>
+  <si>
+    <t>Hearts,3 3 2 2 0 4 3 2 2 2 2 3 7 2 2 1 1 2 1 3 2 3 2 0 5 3 3 2 2 4,(73)</t>
+  </si>
+  <si>
+    <t>Hibernian,5 3 4 2 0 4 1 3 3 1 4 1 3 1 2 1 2 1 1 4 2 0 5 0 1 2 2 0 0 0,(58)</t>
+  </si>
+  <si>
+    <t>Livingston,3 3 3 2 0 1 3 1 3 5 2 0 2 4 2 1 1 1 2 3 2 1 5 3 3 2 2 4 3 4,(71)</t>
+  </si>
+  <si>
+    <t>Motherwell,5 2 3 1 2 2 3 2 2 3 4 7 2 2 3 1 2 1 2 3 4 0 2 2 4 2 2 4 1 2,(75)</t>
+  </si>
+  <si>
+    <t>Rangers,3 1 6 1 3 2 1 3 2 3 4 7 6 4 1 3 2 2 1 2 2 1 6 3 5 2 2 4 1 1,(84)</t>
+  </si>
+  <si>
+    <t>Ross County,0 3 6 2 3 4 3 1 5 5 5 6 1 2 0 5 3 2 3 3 4 3 6 2 3 2 2 4 1 1,(90)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 2 1 0 3 1 1 4 3 2 2 1 0 3 1 1 2 2 3 4 2 0 3 0 3 2 3 4 1 0,(54)</t>
+  </si>
+  <si>
+    <t>St Mirren,4 3 6 0 0 4 5 1 5 3 4 1 0 2 2 0 5 2 0 2 3 1 2 1 3 2 2 2 1 1,(67)</t>
+  </si>
+  <si>
+    <t>Aberdeen,2-0 1-2 1-1 1-1 2-0 0-1 3-2 1-2 2-1 1-0 2-2 2-1 0-2 1-0 2-1 2-0 4-1 0-1 1-0 2-1 1-1 1-0 1-1 2-1 2-3 1-1 1-1 1-1 2-0 1-0</t>
+  </si>
+  <si>
+    <t>Celtic,2-1 6-0 6-0 1-0 3-0 1-0 1-1 1-2 0-2 2-0 1-3 0-0 2-4 2-1 1-0 0-3 1-0 1-2 0-0 1-3 2-0 1-2 1-0 3-0 0-4 2-3 3-2 0-0 2-0 1-3</t>
+  </si>
+  <si>
+    <t>Dundee,2-2 6-0 2-2 1-0 0-0 1-0 0-1 3-1 2-1 1-1 0-5 0-1 2-4 3-0 1-0 3-0 3-2 1-0 0-1 2-1 2-0 0-0 0-0 1-2 1-2 3-2 0-4 0-0 1-1 0-1</t>
+  </si>
+  <si>
+    <t>Dundee United,2-0 1-0 0-1 0-2 0-0 1-0 1-1 1-0 0-3 2-1 1-1 0-1 5-2 1-0 1-1 1-0 0-3 0-1 1-0 1-3 1-2 2-1 1-0 0-0 0-0 2-0 1-1 1-1 2-1 2-2</t>
+  </si>
+  <si>
+    <t>Hearts,2-1 1-2 1-1 0-2 0-0 2-2 3-0 2-0 1-1 1-1 1-1 2-1 5-2 2-0 2-0 1-0 0-1 0-2 0-1 2-1 2-0 1-2 2-0 0-0 5-0 1-2 2-1 0-2 2-0 2-2</t>
+  </si>
+  <si>
+    <t>Hibernian,2-3 3-0 2-2 2-0 0-0 2-2 1-0 2-1 0-3 1-0 1-3 1-0 1-2 0-1 1-1 1-0 1-1 1-0 1-0 1-3 2-0 0-0 2-3 0-0 0-1 2-0 2-0 0-0 0-0 0-0</t>
+  </si>
+  <si>
+    <t>Livingston,3-0 1-2 1-2 2-0 0-0 1-0 3-0 0-1 0-3 2-3 1-1 0-0 1-1 1-3 2-0 0-1 1-0 0-1 1-1 2-1 2-0 1-0 2-3 1-2 2-1 1-1 1-1 0-4 2-1 1-3</t>
+  </si>
+  <si>
+    <t>Motherwell,2-3 1-1 1-2 1-0 2-0 1-1 2-1 2-0 0-2 2-1 2-2 1-6 0-2 2-0 3-0 1-0 1-1 1-0 2-0 2-1 3-1 0-0 2-0 1-1 0-4 2-0 1-1 2-2 0-1 1-1</t>
+  </si>
+  <si>
+    <t>Rangers,3-0 1-0 2-4 1-0 1-2 1-1 0-1 2-1 1-1 1-2 2-2 1-6 4-2 1-3 0-1 3-0 0-2 2-0 1-0 2-0 1-1 1-0 3-3 3-0 5-0 2-0 1-1 2-2 0-1 1-0</t>
+  </si>
+  <si>
+    <t>Ross County,0-0 3-0 2-4 1-1 3-0 2-2 2-1 1-0 2-3 2-3 0-5 4-2 1-0 1-1 0-0 3-2 1-2 1-1 1-2 2-1 3-1 2-1 3-3 1-1 1-2 1-1 2-0 3-1 0-1 1-0</t>
+  </si>
+  <si>
+    <t>St Johnstone,0-0 1-1 0-1 0-0 1-2 0-1 1-0 3-1 0-3 2-0 1-1 0-1 0-0 1-2 1-0 0-1 2-0 2-0 1-2 1-3 2-0 0-0 1-2 0-0 2-1 1-1 2-1 3-1 0-1 0-0</t>
+  </si>
+  <si>
+    <t>St Mirren,2-2 1-2 6-0 0-0 0-0 2-2 3-2 0-1 2-3 1-2 2-2 0-1 0-0 1-1 2-0 0-0 4-1 1-1 0-0 2-0 1-2 1-0 1-1 0-1 2-1 1-1 0-2 2-0 1-0 0-1</t>
+  </si>
+  <si>
+    <t>Aberdeen,2 1 0 0 -2 -1 -1 -1 -1 1 0 1 -2 -1 -1 2 3 1 -1 1 0 -1 0 -1 -1 0 0 0 -2 -1,(-5)</t>
+  </si>
+  <si>
+    <t>Celtic,-1 6 6 -1 3 -1 0 1 2 2 2 0 2 1 1 3 1 1 0 2 2 1 1 3 4 1 1 0 2 2,(47)</t>
+  </si>
+  <si>
+    <t>Dundee,0 -6 0 -1 0 -1 -1 -2 1 0 -5 1 -2 3 1 -3 -1 -1 -1 -1 -2 0 0 -1 1 -1 -4 0 0 -1,(-27)</t>
+  </si>
+  <si>
+    <t>Dundee United,-2 1 1 -2 0 1 0 1 3 1 0 -1 -3 1 0 -1 -3 -1 -1 -2 -1 1 -1 0 0 2 0 0 -1 0,(-7)</t>
+  </si>
+  <si>
+    <t>Hearts,1 1 0 2 0 0 3 2 0 0 0 -1 3 -2 2 -1 1 -2 1 1 2 -1 2 0 -5 -1 -1 2 2 0,(11)</t>
+  </si>
+  <si>
+    <t>Hibernian,1 3 0 2 0 0 1 -1 -3 -1 -2 -1 1 -1 0 -1 0 1 1 2 -2 0 -1 0 -1 -2 2 0 0 0,(-2)</t>
+  </si>
+  <si>
+    <t>Livingston,-3 -1 -1 -2 0 1 -3 -1 3 1 0 0 0 -2 -2 -1 1 1 0 -1 2 -1 1 -1 1 0 0 4 1 -2,(-5)</t>
+  </si>
+  <si>
+    <t>Motherwell,-1 0 1 1 2 0 1 -2 -2 -1 0 -5 2 2 -3 1 0 -1 2 1 -2 0 -2 0 -4 -2 0 0 -1 0,(-13)</t>
+  </si>
+  <si>
+    <t>Rangers,3 -1 2 1 1 0 1 1 0 1 0 5 2 2 1 3 2 2 1 2 0 1 0 -3 5 2 0 0 1 1,(36)</t>
+  </si>
+  <si>
+    <t>Ross County,0 -3 -2 0 -3 0 -1 -1 -1 -1 5 -2 1 0 0 1 -1 0 1 -1 2 -1 0 0 1 0 -2 2 1 1,(-4)</t>
+  </si>
+  <si>
+    <t>St Johnstone,0 0 -1 0 -1 1 -1 2 -3 -2 0 1 0 -1 -1 -1 -2 -2 -1 -2 -2 0 1 0 -1 0 1 -2 -1 0,(-18)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 -1 -6 0 0 0 1 1 1 -1 0 -1 0 0 -2 0 -3 0 0 -2 1 1 0 1 1 0 -2 -2 -1 1,(-13)</t>
+  </si>
+  <si>
+    <t>Aberdeen,Dundee United(6) Livingston(5) Hearts(3) Ross County(8) Motherwell(7) St Johnstone(11) St Mirren(9) Celtic(1) Dundee(12) Hibernian(4) Rangers(2) Hearts(3) Motherwell(7) Dundee United(6) Celtic(1) Livingston(5) St Mirren(9) St Johnstone(11) Hibernian(4) Dundee(12) Rangers(2) St Mirren(9) Ross County(8) Livingston(5) Celtic(1) St Johnstone(11) Motherwell(7) Dundee United(6) Hearts(3) Rangers(2)</t>
+  </si>
+  <si>
+    <t>Celtic,Hearts(3) Dundee(12) St Mirren(9) Rangers(2) Ross County(8) Livingston(5) Dundee United(6) Aberdeen(10) Motherwell(7) St Johnstone(11) Hibernian(4) Livingston(5) Dundee(12) Aberdeen(10) Hearts(3) Dundee United(6) Motherwell(7) Ross County(8) St Mirren(9) St Johnstone(11) Hibernian(4) Hearts(3) Dundee United(6) Rangers(2) Motherwell(7) Aberdeen(10) Dundee(12) Hibernian(4) St Mirren(9) Livingston(5)</t>
+  </si>
+  <si>
+    <t>Dundee,St Mirren(9) Celtic(1) Hibernian(4) Motherwell(7) Livingston(5) Dundee United(6) Rangers(2) St Johnstone(11) Aberdeen(10) Hearts(3) Ross County(8) St Mirren(9) Celtic(1) Motherwell(7) St Johnstone(11) Rangers(2) Ross County(8) Hibernian(4) Hearts(3) Aberdeen(10) Livingston(5) St Johnstone(11) Dundee United(6) Ross County(8) Hearts(3) Celtic(1) Livingston(5) Hibernian(4) Motherwell(7) St Mirren(9)</t>
+  </si>
+  <si>
+    <t>Dundee United,Aberdeen(10) Rangers(2) St Johnstone(11) Hearts(3) St Mirren(9) Dundee(12) Celtic(1) Ross County(8) Hibernian(4) Motherwell(7) Livingston(5) St Johnstone(11) Hearts(3) Aberdeen(10) Ross County(8) Motherwell(7) Celtic(1) Livingston(5) Rangers(2) Hibernian(4) St Mirren(9) Ross County(8) Celtic(1) Dundee(12) St Johnstone(11) Motherwell(7) Rangers(2) Aberdeen(10) Livingston(5) Hearts(3)</t>
+  </si>
+  <si>
+    <t>Hearts,Celtic(1) St Mirren(9) Aberdeen(10) Dundee United(6) Hibernian(4) Ross County(8) Livingston(5) Motherwell(7) Rangers(2) Dundee(12) St Johnstone(11) Aberdeen(10) Dundee United(6) Motherwell(7) St Mirren(9) Celtic(1) Livingston(5) Rangers(2) Dundee(12) Ross County(8) St Johnstone(11) Celtic(1) Motherwell(7) Hibernian(4) Rangers(2) Dundee(12) St Johnstone(11) St Mirren(9) Aberdeen(10) Dundee United(6)</t>
+  </si>
+  <si>
+    <t>Hibernian,Motherwell(7) Ross County(8) Dundee(12) Livingston(5) Hearts(3) St Mirren(9) St Johnstone(11) Rangers(2) Dundee United(6) Aberdeen(10) Celtic(1) Ross County(8) St Johnstone(11) Rangers(2) Motherwell(7) Livingston(5) St Mirren(9) Dundee(12) Aberdeen(10) Dundee United(6) Celtic(1) Motherwell(7) Livingston(5) Hearts(3) St Mirren(9) Rangers(2) Ross County(8) Celtic(1) Dundee(12) St Johnstone(11)</t>
+  </si>
+  <si>
+    <t>Livingston,Rangers(2) Aberdeen(10) Motherwell(7) Hibernian(4) Dundee(12) Celtic(1) Hearts(3) St Mirren(9) St Johnstone(11) Ross County(8) Dundee United(6) Celtic(1) St Mirren(9) Rangers(2) Aberdeen(10) Hearts(3) Hibernian(4) Dundee United(6) Ross County(8) Motherwell(7) Dundee(12) Rangers(2) Hibernian(4) St Johnstone(11) Aberdeen(10) Ross County(8) St Mirren(9) Dundee(12) Dundee United(6) Celtic(1)</t>
+  </si>
+  <si>
+    <t>Motherwell,Hibernian(4) St Johnstone(11) Livingston(5) Dundee(12) Aberdeen(10) Rangers(2) Ross County(8) Hearts(3) Celtic(1) Dundee United(6) St Mirren(9) Rangers(2) Aberdeen(10) Hearts(3) Dundee(12) Dundee United(6) Hibernian(4) Celtic(1) St Johnstone(11) Livingston(5) Ross County(8) Hibernian(4) Hearts(3) St Mirren(9) Celtic(1) Dundee United(6) Aberdeen(10) Rangers(2) Ross County(8) Dundee(12)</t>
+  </si>
+  <si>
+    <t>Rangers,Livingston(5) Dundee United(6) Ross County(8) Celtic(1) St Johnstone(11) Motherwell(7) Dundee(12) Hibernian(4) Hearts(3) St Mirren(9) Aberdeen(10) Motherwell(7) Ross County(8) Livingston(5) Hibernian(4) Dundee(12) Hearts(3) St Johnstone(11) Dundee United(6) St Mirren(9) Aberdeen(10) Livingston(5) Ross County(8) Celtic(1) Hearts(3) Hibernian(4) Dundee United(6) Motherwell(7) St Johnstone(11) Aberdeen(10)</t>
+  </si>
+  <si>
+    <t>Ross County,St Johnstone(11) Hibernian(4) Rangers(2) Aberdeen(10) Celtic(1) Hearts(3) Motherwell(7) Dundee United(6) St Mirren(9) Livingston(5) Dundee(12) Rangers(2) Hibernian(4) Dundee United(6) St Mirren(9) Dundee(12) Celtic(1) Livingston(5) St Johnstone(11) Hearts(3) Motherwell(7) Dundee United(6) Rangers(2) Aberdeen(10) Dundee(12) Livingston(5) Hibernian(4) St Johnstone(11) Motherwell(7) St Mirren(9)</t>
+  </si>
+  <si>
+    <t>St Johnstone,Ross County(8) Motherwell(7) Dundee United(6) St Mirren(9) Rangers(2) Aberdeen(10) Hibernian(4) Dundee(12) Livingston(5) Celtic(1) Hearts(3) Dundee United(6) St Mirren(9) Hibernian(4) Dundee(12) Aberdeen(10) Rangers(2) Motherwell(7) Ross County(8) Celtic(1) Hearts(3) Dundee(12) Livingston(5) Dundee United(6) St Mirren(9) Aberdeen(10) Hearts(3) Ross County(8) Rangers(2) Hibernian(4)</t>
+  </si>
+  <si>
+    <t>St Mirren,Dundee(12) Hearts(3) Celtic(1) St Johnstone(11) Dundee United(6) Hibernian(4) Aberdeen(10) Livingston(5) Ross County(8) Rangers(2) Motherwell(7) Dundee(12) St Johnstone(11) Livingston(5) Hearts(3) Ross County(8) Aberdeen(10) Hibernian(4) Celtic(1) Rangers(2) Dundee United(6) Aberdeen(10) Motherwell(7) Hibernian(4) St Johnstone(11) Livingston(5) Hearts(3) Celtic(1) Ross County(8) Dundee(12)</t>
   </si>
   <si>
     <t>Div</t>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -338,135 +338,135 @@
     <t>0</t>
   </si>
   <si>
+    <t>suml6_sc0_gc</t>
+  </si>
+  <si>
+    <t>sum_sc0_zero_gc</t>
+  </si>
+  <si>
+    <t>sum_sc0_one_gc</t>
+  </si>
+  <si>
+    <t>sum_sc0_two_gc</t>
+  </si>
+  <si>
+    <t>sum_sc0_three_gc</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>suml6_sc0_wm</t>
+  </si>
+  <si>
+    <t>suml6_sc0_wm_negtwo</t>
+  </si>
+  <si>
+    <t>suml6_sc0_wm_negone</t>
+  </si>
+  <si>
+    <t>suml6_sc0_wm_zero</t>
+  </si>
+  <si>
+    <t>suml6_sc0_wm_posone</t>
+  </si>
+  <si>
+    <t>suml6_sc0_wm_postwo</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>-2</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>suml6_sc0_tg</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Dundee.United</t>
+  </si>
+  <si>
+    <t>Ross.County</t>
+  </si>
+  <si>
+    <t>St.Johnstone</t>
+  </si>
+  <si>
+    <t>St.Mirren</t>
+  </si>
+  <si>
+    <t>sc0_hgtotals</t>
+  </si>
+  <si>
+    <t>sc0_agtotals</t>
+  </si>
+  <si>
+    <t>sc0_totalgoals</t>
+  </si>
+  <si>
+    <t>sc0_games_played</t>
+  </si>
+  <si>
+    <t>sc0_avg_totalgoals</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
     <t>28</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>suml6_sc0_gc</t>
-  </si>
-  <si>
-    <t>sum_sc0_zero_gc</t>
-  </si>
-  <si>
-    <t>sum_sc0_one_gc</t>
-  </si>
-  <si>
-    <t>sum_sc0_two_gc</t>
-  </si>
-  <si>
-    <t>sum_sc0_three_gc</t>
-  </si>
-  <si>
-    <t>suml6_sc0_wm</t>
-  </si>
-  <si>
-    <t>suml6_sc0_wm_negtwo</t>
-  </si>
-  <si>
-    <t>suml6_sc0_wm_negone</t>
-  </si>
-  <si>
-    <t>suml6_sc0_wm_zero</t>
-  </si>
-  <si>
-    <t>suml6_sc0_wm_posone</t>
-  </si>
-  <si>
-    <t>suml6_sc0_wm_postwo</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>suml6_sc0_tg</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Dundee.United</t>
-  </si>
-  <si>
-    <t>Ross.County</t>
-  </si>
-  <si>
-    <t>St.Johnstone</t>
-  </si>
-  <si>
-    <t>St.Mirren</t>
-  </si>
-  <si>
-    <t>sc0_hgtotals</t>
-  </si>
-  <si>
-    <t>sc0_agtotals</t>
-  </si>
-  <si>
-    <t>sc0_totalgoals</t>
-  </si>
-  <si>
-    <t>sc0_games_played</t>
-  </si>
-  <si>
-    <t>sc0_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
     <t>18.5</t>
   </si>
   <si>
@@ -1055,40 +1055,40 @@
     <t>St Mirren,L L L W L L</t>
   </si>
   <si>
-    <t>Aberdeen,2 1 2 1 1 3,(10)</t>
-  </si>
-  <si>
-    <t>Celtic,2 1 3 3 2 4,(15)</t>
-  </si>
-  <si>
-    <t>Dundee,1 0 0 0 1 2,(4)</t>
-  </si>
-  <si>
-    <t>Dundee United,1 1 2 2 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Hearts,2 1 2 1 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Hibernian,0 0 2 0 0 1,(3)</t>
-  </si>
-  <si>
-    <t>Livingston,2 1 2 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Motherwell,0 0 1 0 1 4,(6)</t>
-  </si>
-  <si>
-    <t>Rangers,1 5 2 2 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Ross County,3 1 1 3 1 1,(10)</t>
-  </si>
-  <si>
-    <t>St Johnstone,0 0 2 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 1 1 2 0 1,(5)</t>
+    <t>Aberdeen,1 1 0 0 3 2,(7)</t>
+  </si>
+  <si>
+    <t>Celtic,3 0 2 3 4 2,(14)</t>
+  </si>
+  <si>
+    <t>Dundee,0 0 1 0 1 2,(4)</t>
+  </si>
+  <si>
+    <t>Dundee United,1 1 1 2 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Hearts,1 2 2 2 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Hibernian,2 0 0 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Livingston,1 4 2 1 0 0,(8)</t>
+  </si>
+  <si>
+    <t>Motherwell,1 2 0 1 1 4,(9)</t>
+  </si>
+  <si>
+    <t>Rangers,1 2 1 1 2 1,(8)</t>
+  </si>
+  <si>
+    <t>Ross County,0 3 1 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>St Johnstone,2 1 0 0 2 1,(6)</t>
+  </si>
+  <si>
+    <t>St Mirren,0 0 0 1 1 2,(4)</t>
   </si>
   <si>
     <t>Aberdeen,1 1 2 1 1 2,(8)</t>
@@ -4572,7 +4572,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -4584,7 +4584,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
@@ -4675,7 +4675,7 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -4754,7 +4754,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -4863,7 +4863,7 @@
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s">
         <v>13</v>
@@ -5053,7 +5053,7 @@
         <v>248</v>
       </c>
       <c r="N1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O1" t="s">
         <v>249</v>
@@ -11152,7 +11152,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
         <v>566</v>
@@ -12838,7 +12838,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
         <v>566</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>566</v>
@@ -22673,7 +22673,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
         <v>566</v>
@@ -24359,7 +24359,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
         <v>566</v>
@@ -27169,7 +27169,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
         <v>566</v>
@@ -27731,7 +27731,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
         <v>566</v>
@@ -28012,7 +28012,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
         <v>566</v>
@@ -29417,7 +29417,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B83" t="s">
         <v>566</v>
@@ -29979,7 +29979,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B85" t="s">
         <v>566</v>
@@ -31665,7 +31665,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>566</v>
@@ -33351,7 +33351,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B97" t="s">
         <v>566</v>
@@ -44830,79 +44830,79 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>103</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>10</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
       </c>
       <c r="O2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>104</v>
-      </c>
-      <c r="S2" t="s">
-        <v>104</v>
-      </c>
-      <c r="T2" t="s">
-        <v>104</v>
-      </c>
       <c r="U2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="W2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="X2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s">
         <v>11</v>
@@ -44916,85 +44916,85 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
       </c>
       <c r="H3" t="s">
         <v>103</v>
       </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N3" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="O3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P3" t="s">
         <v>11</v>
       </c>
       <c r="Q3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="S3" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="T3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="U3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V3" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="W3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="X3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Z3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AC3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -45008,31 +45008,31 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
         <v>103</v>
       </c>
       <c r="I4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>103</v>
       </c>
       <c r="M4" t="s">
         <v>103</v>
@@ -45041,46 +45041,46 @@
         <v>10</v>
       </c>
       <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" t="s">
         <v>103</v>
-      </c>
-      <c r="P4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>103</v>
-      </c>
-      <c r="R4" t="s">
-        <v>10</v>
       </c>
       <c r="S4" t="s">
         <v>11</v>
       </c>
       <c r="T4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="V4" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="W4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" t="s">
-        <v>12</v>
-      </c>
       <c r="AB4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="s">
         <v>10</v>
@@ -45094,40 +45094,40 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>103</v>
       </c>
       <c r="I5" t="s">
         <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -45136,43 +45136,43 @@
         <v>10</v>
       </c>
       <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" t="s">
         <v>11</v>
       </c>
-      <c r="R5" t="s">
-        <v>104</v>
-      </c>
-      <c r="S5" t="s">
-        <v>104</v>
-      </c>
-      <c r="T5" t="s">
-        <v>104</v>
-      </c>
-      <c r="U5" t="s">
-        <v>104</v>
-      </c>
-      <c r="V5" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" t="s">
-        <v>104</v>
-      </c>
-      <c r="X5" t="s">
-        <v>104</v>
-      </c>
       <c r="Y5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" t="s">
-        <v>13</v>
-      </c>
       <c r="AC5" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -45186,79 +45186,79 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>103</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="L6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" t="s">
         <v>10</v>
       </c>
       <c r="O6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="Q6" t="s">
         <v>11</v>
       </c>
       <c r="R6" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" t="s">
+        <v>103</v>
+      </c>
+      <c r="U6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" t="s">
         <v>11</v>
       </c>
-      <c r="S6" t="s">
-        <v>104</v>
-      </c>
-      <c r="T6" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" t="s">
-        <v>104</v>
-      </c>
-      <c r="V6" t="s">
-        <v>104</v>
-      </c>
       <c r="W6" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="X6" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="Z6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s">
         <v>11</v>
@@ -45275,46 +45275,46 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>103</v>
       </c>
       <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
         <v>10</v>
-      </c>
-      <c r="I7" t="s">
-        <v>103</v>
       </c>
       <c r="J7" t="s">
         <v>10</v>
       </c>
       <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s">
         <v>10</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" t="s">
-        <v>11</v>
       </c>
       <c r="N7" t="s">
         <v>103</v>
       </c>
       <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
         <v>103</v>
       </c>
-      <c r="P7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q7" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="R7" t="s">
         <v>103</v>
@@ -45323,34 +45323,34 @@
         <v>10</v>
       </c>
       <c r="T7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="U7" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="V7" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="W7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="Z7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AB7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -45361,7 +45361,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -45373,7 +45373,7 @@
         <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
         <v>10</v>
@@ -45382,64 +45382,64 @@
         <v>103</v>
       </c>
       <c r="J8" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
         <v>10</v>
       </c>
       <c r="P8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" t="s">
+        <v>103</v>
+      </c>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" t="s">
-        <v>10</v>
-      </c>
-      <c r="R8" t="s">
-        <v>104</v>
-      </c>
-      <c r="S8" t="s">
-        <v>104</v>
-      </c>
-      <c r="T8" t="s">
-        <v>104</v>
-      </c>
-      <c r="U8" t="s">
-        <v>104</v>
-      </c>
-      <c r="V8" t="s">
-        <v>104</v>
-      </c>
-      <c r="W8" t="s">
-        <v>104</v>
-      </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Z8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AB8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -45459,37 +45459,37 @@
         <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="s">
         <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>11</v>
       </c>
       <c r="M9" t="s">
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="P9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="s">
         <v>103</v>
@@ -45498,34 +45498,34 @@
         <v>10</v>
       </c>
       <c r="S9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="T9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U9" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="V9" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="X9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s">
         <v>10</v>
@@ -45542,82 +45542,82 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="K10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="s">
+      <c r="L10" t="s">
         <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
       <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" t="s">
         <v>10</v>
       </c>
-      <c r="O10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" t="s">
         <v>11</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="T10" t="s">
         <v>11</v>
       </c>
-      <c r="R10" t="s">
+      <c r="U10" t="s">
         <v>10</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
         <v>10</v>
       </c>
-      <c r="T10" t="s">
-        <v>104</v>
-      </c>
-      <c r="U10" t="s">
-        <v>104</v>
-      </c>
-      <c r="V10" t="s">
-        <v>104</v>
-      </c>
-      <c r="W10" t="s">
-        <v>104</v>
-      </c>
       <c r="X10" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="Z10" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -45631,82 +45631,82 @@
         <v>103</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O11" t="s">
         <v>10</v>
       </c>
       <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>10</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>10</v>
       </c>
-      <c r="S11" t="s">
-        <v>104</v>
-      </c>
-      <c r="T11" t="s">
-        <v>104</v>
-      </c>
       <c r="U11" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="V11" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="W11" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="X11" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AA11" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -45717,19 +45717,19 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>103</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
@@ -45738,61 +45738,61 @@
         <v>103</v>
       </c>
       <c r="J12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="O12" t="s">
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q12" t="s">
         <v>103</v>
       </c>
       <c r="R12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
+        <v>103</v>
+      </c>
+      <c r="T12" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" t="s">
         <v>10</v>
       </c>
-      <c r="T12" t="s">
-        <v>104</v>
-      </c>
-      <c r="U12" t="s">
-        <v>104</v>
-      </c>
       <c r="V12" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="W12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="X12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y12" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="AA12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="s">
         <v>10</v>
@@ -45806,85 +45806,85 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
       </c>
       <c r="E13" t="s">
         <v>103</v>
       </c>
       <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>10</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
         <v>103</v>
       </c>
-      <c r="I13" t="s">
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="s">
         <v>10</v>
       </c>
-      <c r="J13" t="s">
+      <c r="Q13" t="s">
         <v>103</v>
       </c>
-      <c r="K13" t="s">
+      <c r="R13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" t="s">
+      <c r="T13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" t="s">
         <v>103</v>
       </c>
-      <c r="M13" t="s">
+      <c r="V13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
         <v>10</v>
       </c>
-      <c r="N13" t="s">
-        <v>10</v>
-      </c>
-      <c r="O13" t="s">
+      <c r="Y13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC13" t="s">
         <v>11</v>
-      </c>
-      <c r="P13" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R13" t="s">
-        <v>104</v>
-      </c>
-      <c r="S13" t="s">
-        <v>104</v>
-      </c>
-      <c r="T13" t="s">
-        <v>104</v>
-      </c>
-      <c r="U13" t="s">
-        <v>104</v>
-      </c>
-      <c r="V13" t="s">
-        <v>104</v>
-      </c>
-      <c r="W13" t="s">
-        <v>104</v>
-      </c>
-      <c r="X13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -45972,19 +45972,19 @@
         <v>97</v>
       </c>
       <c r="Y1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" t="s">
         <v>108</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2">
@@ -46067,7 +46067,7 @@
         <v>13</v>
       </c>
       <c r="AA2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AB2" t="s">
         <v>20</v>
@@ -46153,7 +46153,7 @@
         <v>53</v>
       </c>
       <c r="Z3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
         <v>20</v>
@@ -47140,22 +47140,22 @@
         <v>97</v>
       </c>
       <c r="Y1" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" t="s">
         <v>113</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>114</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>115</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -47178,19 +47178,19 @@
         <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L2" t="s">
         <v>10</v>
@@ -47202,13 +47202,13 @@
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R2" t="s">
         <v>11</v>
@@ -47220,7 +47220,7 @@
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V2" t="s">
         <v>10</v>
@@ -47229,7 +47229,7 @@
         <v>103</v>
       </c>
       <c r="X2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y2" t="s">
         <v>66</v>
@@ -47258,7 +47258,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -47267,13 +47267,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I3" t="s">
         <v>103</v>
@@ -47359,19 +47359,19 @@
         <v>103</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
         <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K4" t="s">
         <v>10</v>
@@ -47380,13 +47380,13 @@
         <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
       <c r="O4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P4" t="s">
         <v>12</v>
@@ -47398,19 +47398,19 @@
         <v>66</v>
       </c>
       <c r="S4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X4" t="s">
         <v>103</v>
@@ -47442,7 +47442,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -47451,7 +47451,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
         <v>103</v>
@@ -47475,7 +47475,7 @@
         <v>103</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O5" t="s">
         <v>66</v>
@@ -47487,22 +47487,22 @@
         <v>103</v>
       </c>
       <c r="R5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
         <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="X5" t="s">
         <v>10</v>
@@ -47567,25 +47567,25 @@
         <v>103</v>
       </c>
       <c r="N6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="s">
         <v>11</v>
       </c>
       <c r="R6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S6" t="s">
         <v>10</v>
       </c>
       <c r="T6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U6" t="s">
         <v>10</v>
@@ -47597,7 +47597,7 @@
         <v>11</v>
       </c>
       <c r="X6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s">
         <v>38</v>
@@ -47647,31 +47647,31 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s">
         <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O7" t="s">
         <v>10</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q7" t="s">
         <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S7" t="s">
         <v>103</v>
@@ -47686,7 +47686,7 @@
         <v>11</v>
       </c>
       <c r="W7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X7" t="s">
         <v>103</v>
@@ -47721,13 +47721,13 @@
         <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
         <v>103</v>
@@ -47739,7 +47739,7 @@
         <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -47757,13 +47757,13 @@
         <v>103</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S8" t="s">
         <v>10</v>
@@ -47775,13 +47775,13 @@
         <v>103</v>
       </c>
       <c r="V8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W8" t="s">
         <v>11</v>
       </c>
       <c r="X8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
         <v>65</v>
@@ -47810,7 +47810,7 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" t="s">
         <v>103</v>
@@ -47831,19 +47831,19 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s">
         <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
         <v>11</v>
@@ -47861,7 +47861,7 @@
         <v>103</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
@@ -47870,7 +47870,7 @@
         <v>10</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
         <v>103</v>
@@ -47905,7 +47905,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -48000,7 +48000,7 @@
         <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
         <v>103</v>
@@ -48012,22 +48012,22 @@
         <v>103</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
         <v>10</v>
@@ -48042,7 +48042,7 @@
         <v>10</v>
       </c>
       <c r="S11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T11" t="s">
         <v>103</v>
@@ -48051,13 +48051,13 @@
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W11" t="s">
         <v>11</v>
       </c>
       <c r="X11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y11" t="s">
         <v>65</v>
@@ -48092,19 +48092,19 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
         <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -48113,7 +48113,7 @@
         <v>66</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s">
         <v>103</v>
@@ -48125,28 +48125,28 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="R12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X12" t="s">
         <v>103</v>
@@ -48181,7 +48181,7 @@
         <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -48205,13 +48205,13 @@
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s">
         <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s">
         <v>103</v>
@@ -48220,7 +48220,7 @@
         <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R13" t="s">
         <v>103</v>
@@ -48235,7 +48235,7 @@
         <v>103</v>
       </c>
       <c r="V13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W13" t="s">
         <v>10</v>
@@ -48347,7 +48347,7 @@
         <v>97</v>
       </c>
       <c r="Y1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
@@ -48501,7 +48501,7 @@
         <v>12</v>
       </c>
       <c r="Y3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
@@ -48578,7 +48578,7 @@
         <v>103</v>
       </c>
       <c r="Y4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
@@ -48655,7 +48655,7 @@
         <v>12</v>
       </c>
       <c r="Y5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6">
@@ -48732,7 +48732,7 @@
         <v>12</v>
       </c>
       <c r="Y6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
@@ -48809,7 +48809,7 @@
         <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
@@ -48886,7 +48886,7 @@
         <v>10</v>
       </c>
       <c r="Y8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9">
@@ -48963,7 +48963,7 @@
         <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
@@ -49040,7 +49040,7 @@
         <v>10</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
@@ -49117,7 +49117,7 @@
         <v>12</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -49194,7 +49194,7 @@
         <v>103</v>
       </c>
       <c r="Y12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -49271,7 +49271,7 @@
         <v>10</v>
       </c>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -49299,7 +49299,7 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -49317,28 +49317,28 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>137</v>
-      </c>
-      <c r="P1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -49346,7 +49346,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -49361,7 +49361,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -49376,7 +49376,7 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -49405,13 +49405,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -49429,7 +49429,7 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -49438,7 +49438,7 @@
         <v>13</v>
       </c>
       <c r="N3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O3" t="s">
         <v>153</v>
@@ -49458,13 +49458,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>103</v>
@@ -49491,7 +49491,7 @@
         <v>10</v>
       </c>
       <c r="M4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N4" t="s">
         <v>52</v>
@@ -49523,7 +49523,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -49535,10 +49535,10 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J5" t="s">
         <v>142</v>
-      </c>
-      <c r="J5" t="s">
-        <v>144</v>
       </c>
       <c r="K5" t="s">
         <v>11</v>
@@ -49550,7 +49550,7 @@
         <v>12</v>
       </c>
       <c r="N5" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="O5" t="s">
         <v>155</v>
@@ -49576,19 +49576,19 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>103</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -49606,7 +49606,7 @@
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="O6" t="s">
         <v>152</v>
@@ -49635,16 +49635,16 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -49653,13 +49653,13 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
         <v>147</v>
@@ -49685,13 +49685,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -49700,7 +49700,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -49715,7 +49715,7 @@
         <v>12</v>
       </c>
       <c r="M8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N8" t="s">
         <v>148</v>
@@ -49744,7 +49744,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -49753,13 +49753,13 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
         <v>16</v>
@@ -49780,7 +49780,7 @@
         <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q9" t="s">
         <v>34</v>
@@ -49794,7 +49794,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -49806,10 +49806,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -49818,7 +49818,7 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
@@ -49868,7 +49868,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -49877,7 +49877,7 @@
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
         <v>11</v>
@@ -49915,10 +49915,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
@@ -49927,7 +49927,7 @@
         <v>11</v>
       </c>
       <c r="I12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -49936,7 +49936,7 @@
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
         <v>103</v>
@@ -49971,10 +49971,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -49992,10 +49992,10 @@
         <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s">
         <v>147</v>
@@ -50038,7 +50038,7 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -50056,13 +50056,13 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
         <v>176</v>
@@ -50074,7 +50074,7 @@
         <v>178</v>
       </c>
       <c r="Q1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R1" t="s">
         <v>179</v>
@@ -50085,7 +50085,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -50115,7 +50115,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M2" t="s">
         <v>10</v>
@@ -50144,13 +50144,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -50174,7 +50174,7 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N3" t="s">
         <v>183</v>
@@ -50203,7 +50203,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -50215,7 +50215,7 @@
         <v>182</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
@@ -50262,7 +50262,7 @@
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -50295,7 +50295,7 @@
         <v>157</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q5" t="s">
         <v>34</v>
@@ -50309,7 +50309,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -50321,13 +50321,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I6" t="s">
         <v>180</v>
@@ -50380,10 +50380,10 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -50398,7 +50398,7 @@
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
         <v>187</v>
@@ -50439,7 +50439,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -50483,7 +50483,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -50498,7 +50498,7 @@
         <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
@@ -50525,7 +50525,7 @@
         <v>34</v>
       </c>
       <c r="R9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
@@ -50536,7 +50536,7 @@
         <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -50548,7 +50548,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -50557,7 +50557,7 @@
         <v>180</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -50601,7 +50601,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
@@ -50613,16 +50613,16 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
       </c>
       <c r="M11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
         <v>190</v>
@@ -50675,7 +50675,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
         <v>15</v>
@@ -50701,7 +50701,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -50734,7 +50734,7 @@
         <v>180</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s">
         <v>162</v>
@@ -50743,7 +50743,7 @@
         <v>153</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q13" t="s">
         <v>34</v>
@@ -50777,7 +50777,7 @@
         <v>33</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F1" t="s">
         <v>24</v>
@@ -50795,13 +50795,13 @@
         <v>23</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
         <v>212</v>
@@ -50813,7 +50813,7 @@
         <v>214</v>
       </c>
       <c r="Q1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="R1" t="s">
         <v>215</v>
@@ -50824,7 +50824,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>103</v>
@@ -50883,13 +50883,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
         <v>103</v>
@@ -50907,13 +50907,13 @@
         <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L3" t="s">
         <v>103</v>
       </c>
       <c r="M3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N3" t="s">
         <v>12</v>
@@ -50942,7 +50942,7 @@
         <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>103</v>
@@ -50951,7 +50951,7 @@
         <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
         <v>103</v>
@@ -50963,22 +50963,22 @@
         <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L4" t="s">
         <v>103</v>
       </c>
       <c r="M4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O4" t="s">
         <v>11</v>
       </c>
       <c r="P4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q4" t="s">
         <v>34</v>
@@ -51001,7 +51001,7 @@
         <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
@@ -51060,7 +51060,7 @@
         <v>103</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="G6" t="s">
         <v>103</v>
@@ -51119,7 +51119,7 @@
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="H7" t="s">
         <v>103</v>
@@ -51134,13 +51134,13 @@
         <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
         <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O7" t="s">
         <v>181</v>
@@ -51160,7 +51160,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
@@ -51169,7 +51169,7 @@
         <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
         <v>103</v>
@@ -51178,7 +51178,7 @@
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
         <v>103</v>
@@ -51193,7 +51193,7 @@
         <v>10</v>
       </c>
       <c r="M8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
         <v>180</v>
@@ -51222,7 +51222,7 @@
         <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -51231,13 +51231,13 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H9" t="s">
         <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
@@ -51287,7 +51287,7 @@
         <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
         <v>103</v>
@@ -51296,7 +51296,7 @@
         <v>103</v>
       </c>
       <c r="J10" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s">
         <v>103</v>
@@ -51308,13 +51308,13 @@
         <v>103</v>
       </c>
       <c r="N10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s">
         <v>12</v>
       </c>
       <c r="P10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q10" t="s">
         <v>34</v>
@@ -51355,7 +51355,7 @@
         <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
         <v>103</v>
@@ -51414,7 +51414,7 @@
         <v>103</v>
       </c>
       <c r="L12" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
         <v>10</v>
@@ -51440,7 +51440,7 @@
         <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
         <v>103</v>
@@ -51449,7 +51449,7 @@
         <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -51470,16 +51470,16 @@
         <v>103</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P13" t="s">
         <v>15</v>

--- a/Divisions/SC0.xlsx
+++ b/Divisions/SC0.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="353">
   <si>
     <t>Team</t>
   </si>
@@ -1082,279 +1081,6 @@
   </si>
   <si>
     <t>28.49%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Aberdeen,D W L L W D</t>
-  </si>
-  <si>
-    <t>Celtic,W W W D W W</t>
-  </si>
-  <si>
-    <t>Dundee,D L L D D W</t>
-  </si>
-  <si>
-    <t>Dundee United,D D D L W D</t>
-  </si>
-  <si>
-    <t>Hearts,L W W W D L</t>
-  </si>
-  <si>
-    <t>Hibernian,W D D D D W</t>
-  </si>
-  <si>
-    <t>Livingston,W L D W D W</t>
-  </si>
-  <si>
-    <t>Motherwell,D L D W L W</t>
-  </si>
-  <si>
-    <t>Rangers,W D W L W W</t>
-  </si>
-  <si>
-    <t>Ross County,W W D L L L</t>
-  </si>
-  <si>
-    <t>St Johnstone,W L W W L W</t>
-  </si>
-  <si>
-    <t>St Mirren,L L L L W D</t>
-  </si>
-  <si>
-    <t>Aberdeen,1 3 0 1 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Celtic,2 4 7 1 4 6,(24)</t>
-  </si>
-  <si>
-    <t>Dundee,0 0 1 2 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Dundee United,1 2 2 2 1 1,(9)</t>
-  </si>
-  <si>
-    <t>Hearts,1 2 2 3 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 0 1 1 4,(8)</t>
-  </si>
-  <si>
-    <t>Livingston,2 1 2 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 0 1 4 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Rangers,2 2 1 1 2 4,(12)</t>
-  </si>
-  <si>
-    <t>Ross County,3 1 1 0 0 1,(6)</t>
-  </si>
-  <si>
-    <t>St Johnstone,2 0 2 1 0 1,(6)</t>
-  </si>
-  <si>
-    <t>St Mirren,0 1 0 0 2 0,(3)</t>
-  </si>
-  <si>
-    <t>Aberdeen,1 1 1 2 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Celtic,0 0 0 1 1 0,(2)</t>
-  </si>
-  <si>
-    <t>Dundee,0 1 2 2 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Dundee United,1 2 2 3 0 1,(9)</t>
-  </si>
-  <si>
-    <t>Hearts,2 0 0 1 0 3,(6)</t>
-  </si>
-  <si>
-    <t>Hibernian,0 0 0 1 1 0,(2)</t>
-  </si>
-  <si>
-    <t>Livingston,1 3 2 0 1 1,(8)</t>
-  </si>
-  <si>
-    <t>Motherwell,1 1 1 2 3 1,(9)</t>
-  </si>
-  <si>
-    <t>Rangers,0 2 0 2 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Ross County,1 0 1 2 1 2,(7)</t>
-  </si>
-  <si>
-    <t>St Johnstone,1 1 1 0 1 0,(4)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 2 4 1 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Aberdeen,2 4 1 3 1 0,(11)</t>
-  </si>
-  <si>
-    <t>Celtic,2 4 7 2 5 6,(26)</t>
-  </si>
-  <si>
-    <t>Dundee,0 1 3 4 2 4,(14)</t>
-  </si>
-  <si>
-    <t>Dundee United,2 4 4 5 1 2,(18)</t>
-  </si>
-  <si>
-    <t>Hearts,3 2 2 4 0 4,(15)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 0 2 2 4,(10)</t>
-  </si>
-  <si>
-    <t>Livingston,3 4 4 1 2 3,(17)</t>
-  </si>
-  <si>
-    <t>Motherwell,2 1 2 6 4 3,(18)</t>
-  </si>
-  <si>
-    <t>Rangers,2 4 1 3 2 5,(17)</t>
-  </si>
-  <si>
-    <t>Ross County,4 1 2 2 1 3,(13)</t>
-  </si>
-  <si>
-    <t>St Johnstone,3 1 3 1 1 1,(10)</t>
-  </si>
-  <si>
-    <t>St Mirren,2 3 4 1 2 0,(12)</t>
-  </si>
-  <si>
-    <t>Aberdeen,1-1 3-1 0-1 1-2 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Celtic,2-0 4-0 7-0 1-1 4-1 6-0</t>
-  </si>
-  <si>
-    <t>Dundee,0-0 0-1 1-2 2-2 1-1 3-1</t>
-  </si>
-  <si>
-    <t>Dundee United,1-1 2-2 2-2 2-3 1-0 1-1</t>
-  </si>
-  <si>
-    <t>Hearts,1-2 2-0 2-0 3-1 0-0 1-3</t>
-  </si>
-  <si>
-    <t>Hibernian,2-0 0-0 0-0 1-1 1-1 4-0</t>
-  </si>
-  <si>
-    <t>Livingston,2-1 1-3 2-2 1-0 1-1 2-1</t>
-  </si>
-  <si>
-    <t>Motherwell,1-1 0-1 1-1 4-2 1-3 2-1</t>
-  </si>
-  <si>
-    <t>Rangers,2-0 2-2 1-0 1-2 2-0 4-1</t>
-  </si>
-  <si>
-    <t>Ross County,3-1 1-0 1-1 0-2 0-1 1-2</t>
-  </si>
-  <si>
-    <t>St Johnstone,2-1 0-1 2-1 1-0 0-1 1-0</t>
-  </si>
-  <si>
-    <t>St Mirren,0-2 1-2 0-4 0-1 2-0 0-0</t>
-  </si>
-  <si>
-    <t>Aberdeen,0 2 -1 -1 1 0,(1)</t>
-  </si>
-  <si>
-    <t>Celtic,2 4 7 0 3 6,(22)</t>
-  </si>
-  <si>
-    <t>Dundee,0 -1 -1 0 0 2,(0)</t>
-  </si>
-  <si>
-    <t>Dundee United,0 0 0 -1 1 0,(0)</t>
-  </si>
-  <si>
-    <t>Hearts,-1 2 2 2 0 -2,(3)</t>
-  </si>
-  <si>
-    <t>Hibernian,2 0 0 0 0 4,(6)</t>
-  </si>
-  <si>
-    <t>Livingston,1 -2 0 1 0 1,(1)</t>
-  </si>
-  <si>
-    <t>Motherwell,0 -1 0 2 -2 1,(0)</t>
-  </si>
-  <si>
-    <t>Rangers,2 0 1 -1 2 3,(7)</t>
-  </si>
-  <si>
-    <t>Ross County,2 1 0 -2 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>St Johnstone,1 -1 1 1 -1 1,(2)</t>
-  </si>
-  <si>
-    <t>St Mirren,-2 -1 -4 -1 2 0,(-6)</t>
-  </si>
-  <si>
-    <t>Aberdeen,Dundee United(5) Hibernian(7) Ross County(10) Livingston(4) Dundee(12) St Mirren(8)</t>
-  </si>
-  <si>
-    <t>Celtic,St Mirren(8) Ross County(10) St Johnstone(11) Rangers(2) Hearts(3) Motherwell(6)</t>
-  </si>
-  <si>
-    <t>Dundee,Hibernian(7) St Mirren(8) Rangers(2) Aberdeen(9) St Johnstone(11) Hibernian(7)</t>
-  </si>
-  <si>
-    <t>Dundee United,Rangers(2) Hearts(3) Dundee(12) Hearts(3) Motherwell(6) Celtic(1)</t>
-  </si>
-  <si>
-    <t>Hearts,Dundee(12) Aberdeen(9) Livingston(4) Hibernian(7) Ross County(10) Rangers(2)</t>
-  </si>
-  <si>
-    <t>Hibernian,Ross County(10) Celtic(1) St Johnstone(11) Dundee United(5) Aberdeen(9) St Johnstone(11)</t>
-  </si>
-  <si>
-    <t>Livingston,Dundee United(5) Celtic(1) Motherwell(6) Hibernian(7) St Johnstone(11) Dundee(12)</t>
-  </si>
-  <si>
-    <t>Motherwell,Aberdeen(9) Ross County(10) Dundee(12) St Mirren(8) Rangers(2) Hearts(3)</t>
-  </si>
-  <si>
-    <t>Rangers,Hibernian(7) Motherwell(6) Aberdeen(9) Celtic(1) Dundee United(5) Ross County(10)</t>
-  </si>
-  <si>
-    <t>Ross County,St Johnstone(11) St Mirren(8) Hearts(3) Celtic(1) Motherwell(6) Dundee United(5)</t>
-  </si>
-  <si>
-    <t>St Johnstone,Hearts(3) Rangers(2) Motherwell(6) Livingston(4) St Mirren(8) Aberdeen(9)</t>
-  </si>
-  <si>
-    <t>St Mirren,Hearts(3) Dundee United(5) Rangers(2) Hibernian(7) Dundee(12) Livingston(4)</t>
   </si>
 </sst>
 </file>
@@ -3458,355 +3184,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E2" t="s">
-        <v>396</v>
-      </c>
-      <c r="F2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" t="s">
-        <v>386</v>
-      </c>
-      <c r="E4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" t="s">
-        <v>410</v>
-      </c>
-      <c r="G4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F5" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" t="s">
-        <v>423</v>
-      </c>
-      <c r="H5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>364</v>
-      </c>
-      <c r="C6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" t="s">
-        <v>400</v>
-      </c>
-      <c r="F6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G6" t="s">
-        <v>424</v>
-      </c>
-      <c r="H6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C7" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" t="s">
-        <v>389</v>
-      </c>
-      <c r="E7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" t="s">
-        <v>378</v>
-      </c>
-      <c r="D8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E8" t="s">
-        <v>402</v>
-      </c>
-      <c r="F8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G8" t="s">
-        <v>426</v>
-      </c>
-      <c r="H8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" t="s">
-        <v>391</v>
-      </c>
-      <c r="E9" t="s">
-        <v>403</v>
-      </c>
-      <c r="F9" t="s">
-        <v>415</v>
-      </c>
-      <c r="G9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C10" t="s">
-        <v>380</v>
-      </c>
-      <c r="D10" t="s">
-        <v>392</v>
-      </c>
-      <c r="E10" t="s">
-        <v>404</v>
-      </c>
-      <c r="F10" t="s">
-        <v>416</v>
-      </c>
-      <c r="G10" t="s">
-        <v>428</v>
-      </c>
-      <c r="H10" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C11" t="s">
-        <v>381</v>
-      </c>
-      <c r="D11" t="s">
-        <v>393</v>
-      </c>
-      <c r="E11" t="s">
-        <v>405</v>
-      </c>
-      <c r="F11" t="s">
-        <v>417</v>
-      </c>
-      <c r="G11" t="s">
-        <v>429</v>
-      </c>
-      <c r="H11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C12" t="s">
-        <v>382</v>
-      </c>
-      <c r="D12" t="s">
-        <v>394</v>
-      </c>
-      <c r="E12" t="s">
-        <v>406</v>
-      </c>
-      <c r="F12" t="s">
-        <v>418</v>
-      </c>
-      <c r="G12" t="s">
-        <v>430</v>
-      </c>
-      <c r="H12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" t="s">
-        <v>383</v>
-      </c>
-      <c r="D13" t="s">
-        <v>395</v>
-      </c>
-      <c r="E13" t="s">
-        <v>407</v>
-      </c>
-      <c r="F13" t="s">
-        <v>419</v>
-      </c>
-      <c r="G13" t="s">
-        <v>431</v>
-      </c>
-      <c r="H13" t="s">
-        <v>443</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
